--- a/39.usminiaturegolf/extracted_data/39.Data.xlsx
+++ b/39.usminiaturegolf/extracted_data/39.Data.xlsx
@@ -1,26 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27628"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\Upwork\Task01\Multiple_Directories_Web_scraping\39.usminiaturegolf\extracted_data\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADB2A430-3AA8-4485-A076-42931D47FC93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="120" windowWidth="14940" windowHeight="9225" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1458" uniqueCount="1437">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1628" uniqueCount="1522">
   <si>
     <t>name</t>
   </si>
@@ -4331,13 +4326,268 @@
   </si>
   <si>
     <t>307-382-6348</t>
+  </si>
+  <si>
+    <t>Aha Mini Golf 2702 N Mission Bay Dr San Diego, CA 92 109-6834</t>
+  </si>
+  <si>
+    <t>Hot Springs Mini Golf 415 6th StGlenwood Springs, CO 81601-3101</t>
+  </si>
+  <si>
+    <t>Fun Putter Park 701 5 Pueblo Blvd Pueblo, CO 81005-1 541</t>
+  </si>
+  <si>
+    <t>A J’s Putt-Putt 1 Lorraine Ter Rockfall, CT 06481-2067</t>
+  </si>
+  <si>
+    <t>R &amp; B’s Sports World 19 Rowley St Winsted, CT 06098-6015</t>
+  </si>
+  <si>
+    <t>98 Golf Range 7917 Maysville Rd Maysville, GA 30558-3532</t>
+  </si>
+  <si>
+    <t>Lil General 11357W Us Route 20 Galena, IL 61036-8212</t>
+  </si>
+  <si>
+    <t>Fun Land Of Highland 140 Woodcrest Dr Highland, IL 62249-1255</t>
+  </si>
+  <si>
+    <t>Lee J’s Firehouse Golf 202 N Eastwood Dr Mahomet, IL 61853</t>
+  </si>
+  <si>
+    <t>Wee Tee Golf Center 5200 N Hamilton Rd Peoria, IL 61614-3711</t>
+  </si>
+  <si>
+    <t>Mt Hawley Castle Golf 8200 N Hale Ave Peoria, IL 61615-2054</t>
+  </si>
+  <si>
+    <t>Putt Putt Golf &amp; Games1911 Applewood Center Dr Anderson, IN 46013-3088</t>
+  </si>
+  <si>
+    <t>Pokagon Falls 640W 400 N Angola, IN 46703-9516</t>
+  </si>
+  <si>
+    <t>Par-Putt Mini Golf 1841 Steven Ave Bedford, IN 47421-3582</t>
+  </si>
+  <si>
+    <t>Putter’s Park 4747 W State Road 46 Bloomington, IN 47404-9518</t>
+  </si>
+  <si>
+    <t>Putt Putt Golf &amp; Games 233 5 Pete Ellis Dr Bloomington, IN 47408-6337</t>
+  </si>
+  <si>
+    <t>Paiges Crossing Family Entrtn 2821 E Business 30 Columbia City, IN 46725-8451</t>
+  </si>
+  <si>
+    <t>Putt Putt Golf &amp; Games 1080 N Marr Rd Columbus, IN 47201-5504</t>
+  </si>
+  <si>
+    <t>Midget Links 1215 E Morgan Ave Evansville, IN 47711-4713</t>
+  </si>
+  <si>
+    <t>Putt Putt Golf &amp; Games 7910 Kenton Station Rd Evansville, IN 47720-7108</t>
+  </si>
+  <si>
+    <t>Putt Putt Golf &amp; Games 4530 Speedway Dr Fort Wayne, IN 46825-5235</t>
+  </si>
+  <si>
+    <t>Back Nine Family Fun Center 9116 Lima Rd Fort Wayne, IN 46818-1804</t>
+  </si>
+  <si>
+    <t>Pinewood Chase Inc 101 Woodlawn Dr Goshen, IN 46526-5435</t>
+  </si>
+  <si>
+    <t>Club 46 Miniature Golf 755W Main St Greensburg, IN 47240-1514</t>
+  </si>
+  <si>
+    <t>Hillbilly Golf Warrenton Rd Haubstadt, IN 47639</t>
+  </si>
+  <si>
+    <t>Putt Putt Golf &amp; Games 6320W 34th St Indianapolis, IN 46224-1137</t>
+  </si>
+  <si>
+    <t>Putt Putt Golf &amp; Games 10499 E Washington St Indianapolis, IN 46229-2633</t>
+  </si>
+  <si>
+    <t>Rustic Gardens Golf Range 1500 5 Arlington Ave Indianapolis, IN 46203-2611</t>
+  </si>
+  <si>
+    <t>Putt Putt Golf &amp; Games 3040 5 Lafountain St Kokomo, IN 46902-3708</t>
+  </si>
+  <si>
+    <t>Putt Putt Golf &amp; Games 2131 Sagamore Pkwy S Lafayette, IN 47905-51 09</t>
+  </si>
+  <si>
+    <t>River’s Edge Family Golf Center 1921 N Huntington Rd Marion, IN 46952-1422</t>
+  </si>
+  <si>
+    <t>Putt Putt Golf &amp; Games 3615 N Main St Mishawaka, IN 46545-3113</t>
+  </si>
+  <si>
+    <t>Putting Cup 1410 E Mcgalliard Rd Muncie, IN 47303-2208</t>
+  </si>
+  <si>
+    <t>Midget Links Inc 5622 Cherry Hill Dr Newburgh, IN 47630-3295</t>
+  </si>
+  <si>
+    <t>Snack Shack 375 5 Park St Pekin, IN 47165-7973</t>
+  </si>
+  <si>
+    <t>Putt Putt Golf &amp; Games 410 Commerce Dr Richmond, IN 47374-2647</t>
+  </si>
+  <si>
+    <t>Schererville Golf Center 101 Us Highway 41 Schererville, IN 46375-1203</t>
+  </si>
+  <si>
+    <t>Amick’s Miniature Golf 2011 E Tipton St Seymour, IN 47274-3567</t>
+  </si>
+  <si>
+    <t>Putt Putt Golf &amp; Games 1425 N 6th St Vincennes, IN 47591-2252</t>
+  </si>
+  <si>
+    <t>63 Super Putt 12627 River Rd Ottumwa, IA 52501-8595</t>
+  </si>
+  <si>
+    <t>We Be Dolphin Inc P0 Box 452 Boothbay, Maine 04537-0452</t>
+  </si>
+  <si>
+    <t>Bwi Golf Center 6930 Aviation Blvd Glen Burnie, MD 21061-2564</t>
+  </si>
+  <si>
+    <t>Old Pro Golf 23rd St Ocean City, MD 21842</t>
+  </si>
+  <si>
+    <t>Old Pro Golf 28th St Ocean City, MD 21842</t>
+  </si>
+  <si>
+    <t>Old Pro Golf 6801 Coastal Hwy Ocean City, MD 21842-2944</t>
+  </si>
+  <si>
+    <t>Ice Land Golf 400 5 Philadelphia Ave Ocean City, MD 21842-4217</t>
+  </si>
+  <si>
+    <t>Old Pro Golf 13601 Coastal Hwy Ocean City, MD 21842-4542</t>
+  </si>
+  <si>
+    <t>Bourne Bridge Mini Golf 11 Bridge Approach St Buzzards Bay, Massachusetts 02532-5643</t>
+  </si>
+  <si>
+    <t>202 Sports Inc 249 Daniel Shays Hwy Orange, MA 01364-2029</t>
+  </si>
+  <si>
+    <t>Par Tee Time 201 5 Division St Bellaire, Michigan 49615</t>
+  </si>
+  <si>
+    <t>Max In Miniature Golf 327 5 3rd Ave Big Rapids, Ml 49307-9782</t>
+  </si>
+  <si>
+    <t>Old Town Golf&amp; Sportland 6724 N Monroe St Monroe, Ml 48162-9462</t>
+  </si>
+  <si>
+    <t>Bed Rock Putting Course Temperance, Ml 48182</t>
+  </si>
+  <si>
+    <t>Adventure Golf Design &amp; Dev 13721 5 West Bay Shore Dr #A Traverse City, Ml 49684-6203</t>
+  </si>
+  <si>
+    <t>Big Shot Family Action Park Highway 54 Camdenton, MO 65020</t>
+  </si>
+  <si>
+    <t>Fun Acre 2500 S Campbell Ave Springfield, MO 65807-3502</t>
+  </si>
+  <si>
+    <t>Pro Putt Mini Golf 1212 5th Ave Havre, MT 59501-4517</t>
+  </si>
+  <si>
+    <t>La Mer Miniature Golf 1317 Beach Dr Cape May, NJ 08204-2726</t>
+  </si>
+  <si>
+    <t>Sea Mist Miniature Golf 9 42nd St Sea Isle City, NJ 08243-1901</t>
+  </si>
+  <si>
+    <t>Mr Shake RR 1 Richfield Spgs, New York13439-9801</t>
+  </si>
+  <si>
+    <t>T Time 4651 State Highway 30 Amsterdam, New York12010-7429</t>
+  </si>
+  <si>
+    <t>Power Putter Miniature Golf 130 Hicksville Rd Bethpage, New York11714-3443</t>
+  </si>
+  <si>
+    <t>P K Putters State Route 5 Geneva, NY 14456</t>
+  </si>
+  <si>
+    <t>Mr Pudder’s 687W Genesee Street Rd Skaneateles, NY 13152-9363</t>
+  </si>
+  <si>
+    <t>94 Pitch &amp; Putt Route 94 Washingtonville, NY 10992</t>
+  </si>
+  <si>
+    <t>Pro Putt Golf 2005 Erwin Rd Dunn, NC 28334-6634</t>
+  </si>
+  <si>
+    <t>Jmt Of Hickory Inc 1960 Us Highway 70 SE Hickory, NC 28602-5106</t>
+  </si>
+  <si>
+    <t>Tn T’s Fun Center 340 Columbus Rd Athens, Ohio 45701-1336</t>
+  </si>
+  <si>
+    <t>Big Top Mini Golf 1964 State Route 42 N Mansfield, OH 44905</t>
+  </si>
+  <si>
+    <t>Fun Zone 1642 Harding Hwy E Marion, OH 43302-4525</t>
+  </si>
+  <si>
+    <t>D &amp; S Mini Golf 101 E Taylor Ave Coalgate, OK 74538-2645</t>
+  </si>
+  <si>
+    <t>J J’s Golf Center 10712 5 Memorial Dr Tulsa, OK 74133-7315</t>
+  </si>
+  <si>
+    <t>Amish Country Motel 3013 Old Philadelphia Pike Bird In Hand, Pennsylvania 17505-9724</t>
+  </si>
+  <si>
+    <t>Fun In The Sun Tanning 861 York Rd Gettysburg, PA 17325-7501</t>
+  </si>
+  <si>
+    <t>Pro Putt Miniature Golf 3501 E Lake Rd Jamestown, PA 16134-4439</t>
+  </si>
+  <si>
+    <t>Pro Putt Miniature Golf 1065 Market St Warren, PA 16365-1269</t>
+  </si>
+  <si>
+    <t>Spy Glass Golf 3801 N Kings Hwy Myrtle Beach, SC 29577-2714</t>
+  </si>
+  <si>
+    <t>Koa Mini Golf Fm 2152 Mt Pleasant, TX 75455</t>
+  </si>
+  <si>
+    <t>Mr Puttz Miniature Golf Route 5 Bradford, Vermont 05033</t>
+  </si>
+  <si>
+    <t>Jazwieck’s Golf &amp; Train 7828 Broadway Everett, Washington 98203-6804</t>
+  </si>
+  <si>
+    <t>Carlon Park Miniature Golf Carlon Park Wenas Rd Selah, WA 98942</t>
+  </si>
+  <si>
+    <t>Suntides Challenge Putting Crs 231 Pence Rd Yakima, WA 98908-2257</t>
+  </si>
+  <si>
+    <t>Tom Kat Mini Golf Us Highway 2 Iron River, Wisconsin 54847</t>
+  </si>
+  <si>
+    <t>Tom &amp; Jerry’s Mini Golf 110 Suhrke Rd Plymouth, WI 53073-1106</t>
+  </si>
+  <si>
+    <t>Old River Mini Golf 31 Broadway Wisconsin Dells, WI 53965-1547</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="1">
     <font>
       <sz val="10"/>
       <color theme="1"/>
@@ -4362,17 +4612,110 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  <cellStyleXfs count="20">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Percent" xfId="15" builtinId="5"/>
+    <cellStyle name="Currency" xfId="16" builtinId="4"/>
+    <cellStyle name="Currency [0]" xfId="17" builtinId="7"/>
+    <cellStyle name="Comma" xfId="18" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="19" builtinId="6"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -4680,18 +5023,18 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49A526AD-C67D-427E-B1A2-8D8FA76EA3CE}">
-  <dimension ref="A1:B729"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{e3f5fa23-7641-4dc0-9078-1a29d4445f78}">
+  <dimension ref="A1:B814"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A723" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0" topLeftCell="A1"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="77" customWidth="1"/>
-    <col min="2" max="2" width="23.109375" customWidth="1"/>
+    <col min="2" max="2" width="23.1428571428571" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" ht="12.75">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -4699,7 +5042,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" ht="12.75">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -4707,7 +5050,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" ht="12.75">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -4715,7 +5058,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" ht="12.75">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -4723,7 +5066,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" ht="12.75">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -4731,7 +5074,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" ht="12.75">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -4739,7 +5082,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" ht="12.75">
       <c r="A7" t="s">
         <v>10</v>
       </c>
@@ -4747,7 +5090,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" ht="12.75">
       <c r="A8" t="s">
         <v>13</v>
       </c>
@@ -4755,7 +5098,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" ht="12.75">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -4763,7 +5106,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" ht="12.75">
       <c r="A10" t="s">
         <v>10</v>
       </c>
@@ -4771,7 +5114,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" ht="12.75">
       <c r="A11" t="s">
         <v>17</v>
       </c>
@@ -4779,7 +5122,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" ht="12.75">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -4787,7 +5130,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" ht="12.75">
       <c r="A13" t="s">
         <v>20</v>
       </c>
@@ -4795,7 +5138,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" ht="12.75">
       <c r="A14" t="s">
         <v>22</v>
       </c>
@@ -4803,7 +5146,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" ht="12.75">
       <c r="A15" t="s">
         <v>24</v>
       </c>
@@ -4811,7 +5154,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" ht="12.75">
       <c r="A16" t="s">
         <v>10</v>
       </c>
@@ -4819,7 +5162,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" ht="12.75">
       <c r="A17" t="s">
         <v>27</v>
       </c>
@@ -4827,7 +5170,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" ht="12.75">
       <c r="A18" t="s">
         <v>29</v>
       </c>
@@ -4835,7 +5178,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" ht="12.75">
       <c r="A19" t="s">
         <v>10</v>
       </c>
@@ -4843,7 +5186,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" ht="12.75">
       <c r="A20" t="s">
         <v>32</v>
       </c>
@@ -4851,7 +5194,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" ht="12.75">
       <c r="A21" t="s">
         <v>34</v>
       </c>
@@ -4859,7 +5202,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" ht="12.75">
       <c r="A22" t="s">
         <v>36</v>
       </c>
@@ -4867,7 +5210,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" ht="12.75">
       <c r="A23" t="s">
         <v>38</v>
       </c>
@@ -4875,7 +5218,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" ht="12.75">
       <c r="A24" t="s">
         <v>40</v>
       </c>
@@ -4883,7 +5226,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" ht="12.75">
       <c r="A25" t="s">
         <v>42</v>
       </c>
@@ -4891,7 +5234,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" ht="12.75">
       <c r="A26" t="s">
         <v>44</v>
       </c>
@@ -4899,7 +5242,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" ht="12.75">
       <c r="A27" t="s">
         <v>46</v>
       </c>
@@ -4907,7 +5250,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" ht="12.75">
       <c r="A28" t="s">
         <v>48</v>
       </c>
@@ -4915,7 +5258,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2" ht="12.75">
       <c r="A29" t="s">
         <v>50</v>
       </c>
@@ -4923,7 +5266,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2" ht="12.75">
       <c r="A30" t="s">
         <v>52</v>
       </c>
@@ -4931,7 +5274,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2" ht="12.75">
       <c r="A31" t="s">
         <v>54</v>
       </c>
@@ -4939,7 +5282,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:2" ht="12.75">
       <c r="A32" t="s">
         <v>56</v>
       </c>
@@ -4947,7 +5290,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2" ht="12.75">
       <c r="A33" t="s">
         <v>58</v>
       </c>
@@ -4955,7 +5298,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2" ht="12.75">
       <c r="A34" t="s">
         <v>60</v>
       </c>
@@ -4963,7 +5306,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2" ht="12.75">
       <c r="A35" t="s">
         <v>62</v>
       </c>
@@ -4971,7 +5314,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2" ht="12.75">
       <c r="A36" t="s">
         <v>64</v>
       </c>
@@ -4979,7 +5322,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:2" ht="12.75">
       <c r="A37" t="s">
         <v>66</v>
       </c>
@@ -4987,7 +5330,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:2" ht="12.75">
       <c r="A38" t="s">
         <v>68</v>
       </c>
@@ -4995,7 +5338,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:2" ht="12.75">
       <c r="A39" t="s">
         <v>70</v>
       </c>
@@ -5003,7 +5346,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:2" ht="12.75">
       <c r="A40" t="s">
         <v>72</v>
       </c>
@@ -5011,7 +5354,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:2" ht="12.75">
       <c r="A41" t="s">
         <v>74</v>
       </c>
@@ -5019,7 +5362,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:2" ht="12.75">
       <c r="A42" t="s">
         <v>76</v>
       </c>
@@ -5027,7 +5370,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:2" ht="12.75">
       <c r="A43" t="s">
         <v>78</v>
       </c>
@@ -5035,7 +5378,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:2" ht="12.75">
       <c r="A44" t="s">
         <v>80</v>
       </c>
@@ -5043,7 +5386,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:2" ht="12.75">
       <c r="A45" t="s">
         <v>82</v>
       </c>
@@ -5051,7 +5394,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:2" ht="12.75">
       <c r="A46" t="s">
         <v>84</v>
       </c>
@@ -5059,7 +5402,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:2" ht="12.75">
       <c r="A47" t="s">
         <v>86</v>
       </c>
@@ -5067,7 +5410,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:2" ht="12.75">
       <c r="A48" t="s">
         <v>88</v>
       </c>
@@ -5075,7 +5418,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:2" ht="12.75">
       <c r="A49" t="s">
         <v>90</v>
       </c>
@@ -5083,7 +5426,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:2" ht="12.75">
       <c r="A50" t="s">
         <v>91</v>
       </c>
@@ -5091,7 +5434,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:2" ht="12.75">
       <c r="A51" t="s">
         <v>92</v>
       </c>
@@ -5099,7 +5442,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:2" ht="12.75">
       <c r="A52" t="s">
         <v>93</v>
       </c>
@@ -5107,7 +5450,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:2" ht="12.75">
       <c r="A53" t="s">
         <v>94</v>
       </c>
@@ -5115,7 +5458,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:2" ht="12.75">
       <c r="A54" t="s">
         <v>95</v>
       </c>
@@ -5123,7 +5466,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:2" ht="12.75">
       <c r="A55" t="s">
         <v>96</v>
       </c>
@@ -5131,7 +5474,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:2" ht="12.75">
       <c r="A56" t="s">
         <v>97</v>
       </c>
@@ -5139,7 +5482,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:2" ht="12.75">
       <c r="A57" t="s">
         <v>98</v>
       </c>
@@ -5147,7 +5490,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:2" ht="12.75">
       <c r="A58" t="s">
         <v>99</v>
       </c>
@@ -5155,7 +5498,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:2" ht="12.75">
       <c r="A59" t="s">
         <v>100</v>
       </c>
@@ -5163,7 +5506,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:2" ht="12.75">
       <c r="A60" t="s">
         <v>101</v>
       </c>
@@ -5171,7 +5514,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:2" ht="12.75">
       <c r="A61" t="s">
         <v>102</v>
       </c>
@@ -5179,7 +5522,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:2" ht="12.75">
       <c r="A62" t="s">
         <v>103</v>
       </c>
@@ -5187,7 +5530,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:2" ht="12.75">
       <c r="A63" t="s">
         <v>104</v>
       </c>
@@ -5195,7 +5538,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:2" ht="12.75">
       <c r="A64" t="s">
         <v>105</v>
       </c>
@@ -5203,7 +5546,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:2" ht="12.75">
       <c r="A65" t="s">
         <v>107</v>
       </c>
@@ -5211,7 +5554,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:2" ht="12.75">
       <c r="A66" t="s">
         <v>109</v>
       </c>
@@ -5219,7 +5562,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:2" ht="12.75">
       <c r="A67" t="s">
         <v>111</v>
       </c>
@@ -5227,7 +5570,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:2" ht="12.75">
       <c r="A68" t="s">
         <v>113</v>
       </c>
@@ -5235,7 +5578,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:2" ht="12.75">
       <c r="A69" t="s">
         <v>115</v>
       </c>
@@ -5243,7 +5586,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:2" ht="12.75">
       <c r="A70" t="s">
         <v>117</v>
       </c>
@@ -5251,7 +5594,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:2" ht="12.75">
       <c r="A71" t="s">
         <v>119</v>
       </c>
@@ -5259,7 +5602,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:2" ht="12.75">
       <c r="A72" t="s">
         <v>121</v>
       </c>
@@ -5267,7 +5610,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:2" ht="12.75">
       <c r="A73" t="s">
         <v>123</v>
       </c>
@@ -5275,7 +5618,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:2" ht="12.75">
       <c r="A74" t="s">
         <v>125</v>
       </c>
@@ -5283,7 +5626,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:2" ht="12.75">
       <c r="A75" t="s">
         <v>127</v>
       </c>
@@ -5291,7 +5634,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:2" ht="12.75">
       <c r="A76" t="s">
         <v>129</v>
       </c>
@@ -5299,7 +5642,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:2" ht="12.75">
       <c r="A77" t="s">
         <v>131</v>
       </c>
@@ -5307,7 +5650,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:2" ht="12.75">
       <c r="A78" t="s">
         <v>133</v>
       </c>
@@ -5315,7 +5658,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:2" ht="12.75">
       <c r="A79" t="s">
         <v>135</v>
       </c>
@@ -5323,7 +5666,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:2" ht="12.75">
       <c r="A80" t="s">
         <v>137</v>
       </c>
@@ -5331,7 +5674,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:2" ht="12.75">
       <c r="A81" t="s">
         <v>139</v>
       </c>
@@ -5339,7 +5682,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:2" ht="12.75">
       <c r="A82" t="s">
         <v>141</v>
       </c>
@@ -5347,7 +5690,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:2" ht="12.75">
       <c r="A83" t="s">
         <v>143</v>
       </c>
@@ -5355,7 +5698,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:2" ht="12.75">
       <c r="A84" t="s">
         <v>145</v>
       </c>
@@ -5363,7 +5706,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:2" ht="12.75">
       <c r="A85" t="s">
         <v>147</v>
       </c>
@@ -5371,7 +5714,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:2" ht="12.75">
       <c r="A86" t="s">
         <v>149</v>
       </c>
@@ -5379,7 +5722,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:2" ht="12.75">
       <c r="A87" t="s">
         <v>151</v>
       </c>
@@ -5387,7 +5730,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:2" ht="12.75">
       <c r="A88" t="s">
         <v>153</v>
       </c>
@@ -5395,7 +5738,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:2" ht="12.75">
       <c r="A89" t="s">
         <v>155</v>
       </c>
@@ -5403,7 +5746,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:2" ht="12.75">
       <c r="A90" t="s">
         <v>157</v>
       </c>
@@ -5411,7 +5754,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:2" ht="12.75">
       <c r="A91" t="s">
         <v>159</v>
       </c>
@@ -5419,7 +5762,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:2" ht="12.75">
       <c r="A92" t="s">
         <v>161</v>
       </c>
@@ -5427,7 +5770,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:2" ht="12.75">
       <c r="A93" t="s">
         <v>163</v>
       </c>
@@ -5435,7 +5778,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:2" ht="12.75">
       <c r="A94" t="s">
         <v>165</v>
       </c>
@@ -5443,7 +5786,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:2" ht="12.75">
       <c r="A95" t="s">
         <v>167</v>
       </c>
@@ -5451,7 +5794,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:2" ht="12.75">
       <c r="A96" t="s">
         <v>169</v>
       </c>
@@ -5459,7 +5802,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:2" ht="12.75">
       <c r="A97" t="s">
         <v>171</v>
       </c>
@@ -5467,7 +5810,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:2" ht="12.75">
       <c r="A98" t="s">
         <v>173</v>
       </c>
@@ -5475,7 +5818,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:2" ht="12.75">
       <c r="A99" t="s">
         <v>175</v>
       </c>
@@ -5483,7 +5826,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:2" ht="12.75">
       <c r="A100" t="s">
         <v>177</v>
       </c>
@@ -5491,7 +5834,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:2" ht="12.75">
       <c r="A101" t="s">
         <v>179</v>
       </c>
@@ -5499,7 +5842,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:2" ht="12.75">
       <c r="A102" t="s">
         <v>181</v>
       </c>
@@ -5507,7 +5850,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:2" ht="12.75">
       <c r="A103" t="s">
         <v>183</v>
       </c>
@@ -5515,7 +5858,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:2" ht="12.75">
       <c r="A104" t="s">
         <v>185</v>
       </c>
@@ -5523,7 +5866,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:2" ht="12.75">
       <c r="A105" t="s">
         <v>187</v>
       </c>
@@ -5531,7 +5874,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:2" ht="12.75">
       <c r="A106" t="s">
         <v>189</v>
       </c>
@@ -5539,7 +5882,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:2" ht="12.75">
       <c r="A107" t="s">
         <v>191</v>
       </c>
@@ -5547,7 +5890,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:2" ht="12.75">
       <c r="A108" t="s">
         <v>193</v>
       </c>
@@ -5555,7 +5898,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:2" ht="12.75">
       <c r="A109" t="s">
         <v>195</v>
       </c>
@@ -5563,7 +5906,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:2" ht="12.75">
       <c r="A110" t="s">
         <v>197</v>
       </c>
@@ -5571,7 +5914,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:2" ht="12.75">
       <c r="A111" t="s">
         <v>199</v>
       </c>
@@ -5579,7 +5922,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:2" ht="12.75">
       <c r="A112" t="s">
         <v>201</v>
       </c>
@@ -5587,7 +5930,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:2" ht="12.75">
       <c r="A113" t="s">
         <v>203</v>
       </c>
@@ -5595,7 +5938,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:2" ht="12.75">
       <c r="A114" t="s">
         <v>205</v>
       </c>
@@ -5603,7 +5946,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:2" ht="12.75">
       <c r="A115" t="s">
         <v>207</v>
       </c>
@@ -5611,7 +5954,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:2" ht="12.75">
       <c r="A116" t="s">
         <v>209</v>
       </c>
@@ -5619,7 +5962,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:2" ht="12.75">
       <c r="A117" t="s">
         <v>211</v>
       </c>
@@ -5627,7 +5970,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:2" ht="12.75">
       <c r="A118" t="s">
         <v>213</v>
       </c>
@@ -5635,7 +5978,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:2" ht="12.75">
       <c r="A119" t="s">
         <v>215</v>
       </c>
@@ -5643,7 +5986,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:2" ht="12.75">
       <c r="A120" t="s">
         <v>217</v>
       </c>
@@ -5651,7 +5994,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:2" ht="12.75">
       <c r="A121" t="s">
         <v>219</v>
       </c>
@@ -5659,7 +6002,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:2" ht="12.75">
       <c r="A122" t="s">
         <v>221</v>
       </c>
@@ -5667,7 +6010,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:2" ht="12.75">
       <c r="A123" t="s">
         <v>223</v>
       </c>
@@ -5675,7 +6018,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:2" ht="12.75">
       <c r="A124" t="s">
         <v>225</v>
       </c>
@@ -5683,7 +6026,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:2" ht="12.75">
       <c r="A125" t="s">
         <v>227</v>
       </c>
@@ -5691,7 +6034,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:2" ht="12.75">
       <c r="A126" t="s">
         <v>229</v>
       </c>
@@ -5699,7 +6042,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:2" ht="12.75">
       <c r="A127" t="s">
         <v>231</v>
       </c>
@@ -5707,7 +6050,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:2" ht="12.75">
       <c r="A128" t="s">
         <v>233</v>
       </c>
@@ -5715,7 +6058,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:2" ht="12.75">
       <c r="A129" t="s">
         <v>235</v>
       </c>
@@ -5723,7 +6066,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:2" ht="12.75">
       <c r="A130" t="s">
         <v>237</v>
       </c>
@@ -5731,7 +6074,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:2" ht="12.75">
       <c r="A131" t="s">
         <v>239</v>
       </c>
@@ -5739,7 +6082,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:2" ht="12.75">
       <c r="A132" t="s">
         <v>241</v>
       </c>
@@ -5747,7 +6090,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:2" ht="12.75">
       <c r="A133" t="s">
         <v>243</v>
       </c>
@@ -5755,7 +6098,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:2" ht="12.75">
       <c r="A134" t="s">
         <v>245</v>
       </c>
@@ -5763,7 +6106,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:2" ht="12.75">
       <c r="A135" t="s">
         <v>247</v>
       </c>
@@ -5771,7 +6114,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:2" ht="12.75">
       <c r="A136" t="s">
         <v>249</v>
       </c>
@@ -5779,7 +6122,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:2" ht="12.75">
       <c r="A137" t="s">
         <v>251</v>
       </c>
@@ -5787,7 +6130,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:2" ht="12.75">
       <c r="A138" t="s">
         <v>253</v>
       </c>
@@ -5795,7 +6138,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:2" ht="12.75">
       <c r="A139" t="s">
         <v>255</v>
       </c>
@@ -5803,7 +6146,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:2" ht="12.75">
       <c r="A140" t="s">
         <v>257</v>
       </c>
@@ -5811,7 +6154,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:2" ht="12.75">
       <c r="A141" t="s">
         <v>259</v>
       </c>
@@ -5819,7 +6162,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:2" ht="12.75">
       <c r="A142" t="s">
         <v>261</v>
       </c>
@@ -5827,7 +6170,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:2" ht="12.75">
       <c r="A143" t="s">
         <v>263</v>
       </c>
@@ -5835,7 +6178,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:2" ht="12.75">
       <c r="A144" t="s">
         <v>265</v>
       </c>
@@ -5843,7 +6186,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:2" ht="12.75">
       <c r="A145" t="s">
         <v>267</v>
       </c>
@@ -5851,7 +6194,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:2" ht="12.75">
       <c r="A146" t="s">
         <v>269</v>
       </c>
@@ -5859,7 +6202,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:2" ht="12.75">
       <c r="A147" t="s">
         <v>271</v>
       </c>
@@ -5867,7 +6210,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:2" ht="12.75">
       <c r="A148" t="s">
         <v>273</v>
       </c>
@@ -5875,7 +6218,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:2" ht="12.75">
       <c r="A149" t="s">
         <v>275</v>
       </c>
@@ -5883,7 +6226,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:2" ht="12.75">
       <c r="A150" t="s">
         <v>277</v>
       </c>
@@ -5891,7 +6234,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:2" ht="12.75">
       <c r="A151" t="s">
         <v>279</v>
       </c>
@@ -5899,7 +6242,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:2" ht="12.75">
       <c r="A152" t="s">
         <v>281</v>
       </c>
@@ -5907,7 +6250,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:2" ht="12.75">
       <c r="A153" t="s">
         <v>283</v>
       </c>
@@ -5915,7 +6258,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:2" ht="12.75">
       <c r="A154" t="s">
         <v>285</v>
       </c>
@@ -5923,7 +6266,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:2" ht="12.75">
       <c r="A155" t="s">
         <v>287</v>
       </c>
@@ -5931,7 +6274,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:2" ht="12.75">
       <c r="A156" t="s">
         <v>289</v>
       </c>
@@ -5939,7 +6282,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:2" ht="12.75">
       <c r="A157" t="s">
         <v>291</v>
       </c>
@@ -5947,7 +6290,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:2" ht="12.75">
       <c r="A158" t="s">
         <v>293</v>
       </c>
@@ -5955,7 +6298,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:2" ht="12.75">
       <c r="A159" t="s">
         <v>295</v>
       </c>
@@ -5963,7 +6306,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:2" ht="12.75">
       <c r="A160" t="s">
         <v>297</v>
       </c>
@@ -5971,7 +6314,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:2" ht="12.75">
       <c r="A161" t="s">
         <v>299</v>
       </c>
@@ -5979,7 +6322,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="162" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:2" ht="12.75">
       <c r="A162" t="s">
         <v>301</v>
       </c>
@@ -5987,7 +6330,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:2" ht="12.75">
       <c r="A163" t="s">
         <v>303</v>
       </c>
@@ -5995,7 +6338,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="164" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:2" ht="12.75">
       <c r="A164" t="s">
         <v>305</v>
       </c>
@@ -6003,7 +6346,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="165" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:2" ht="12.75">
       <c r="A165" t="s">
         <v>307</v>
       </c>
@@ -6011,7 +6354,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="166" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:2" ht="12.75">
       <c r="A166" t="s">
         <v>309</v>
       </c>
@@ -6019,7 +6362,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="167" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:2" ht="12.75">
       <c r="A167" t="s">
         <v>311</v>
       </c>
@@ -6027,7 +6370,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="168" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:2" ht="12.75">
       <c r="A168" t="s">
         <v>313</v>
       </c>
@@ -6035,7 +6378,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="169" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:2" ht="12.75">
       <c r="A169" t="s">
         <v>315</v>
       </c>
@@ -6043,7 +6386,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="170" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:2" ht="12.75">
       <c r="A170" t="s">
         <v>317</v>
       </c>
@@ -6051,7 +6394,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="171" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:2" ht="12.75">
       <c r="A171" t="s">
         <v>319</v>
       </c>
@@ -6059,7 +6402,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="172" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:2" ht="12.75">
       <c r="A172" t="s">
         <v>321</v>
       </c>
@@ -6067,7 +6410,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="173" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:2" ht="12.75">
       <c r="A173" t="s">
         <v>323</v>
       </c>
@@ -6075,7 +6418,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="174" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:2" ht="12.75">
       <c r="A174" t="s">
         <v>325</v>
       </c>
@@ -6083,7 +6426,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="175" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:2" ht="12.75">
       <c r="A175" t="s">
         <v>327</v>
       </c>
@@ -6091,7 +6434,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="176" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:2" ht="12.75">
       <c r="A176" t="s">
         <v>329</v>
       </c>
@@ -6099,7 +6442,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="177" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:2" ht="12.75">
       <c r="A177" t="s">
         <v>331</v>
       </c>
@@ -6107,7 +6450,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="178" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:2" ht="12.75">
       <c r="A178" t="s">
         <v>333</v>
       </c>
@@ -6115,7 +6458,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="179" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:2" ht="12.75">
       <c r="A179" t="s">
         <v>335</v>
       </c>
@@ -6123,7 +6466,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="180" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:2" ht="12.75">
       <c r="A180" t="s">
         <v>337</v>
       </c>
@@ -6131,7 +6474,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="181" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:2" ht="12.75">
       <c r="A181" t="s">
         <v>339</v>
       </c>
@@ -6139,7 +6482,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="182" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:2" ht="12.75">
       <c r="A182" t="s">
         <v>341</v>
       </c>
@@ -6147,7 +6490,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="183" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:2" ht="12.75">
       <c r="A183" t="s">
         <v>343</v>
       </c>
@@ -6155,7 +6498,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="184" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:2" ht="12.75">
       <c r="A184" t="s">
         <v>345</v>
       </c>
@@ -6163,7 +6506,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="185" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:2" ht="12.75">
       <c r="A185" t="s">
         <v>347</v>
       </c>
@@ -6171,7 +6514,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="186" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:2" ht="12.75">
       <c r="A186" t="s">
         <v>349</v>
       </c>
@@ -6179,7 +6522,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="187" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:2" ht="12.75">
       <c r="A187" t="s">
         <v>351</v>
       </c>
@@ -6187,7 +6530,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="188" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:2" ht="12.75">
       <c r="A188" t="s">
         <v>353</v>
       </c>
@@ -6195,7 +6538,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="189" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:2" ht="12.75">
       <c r="A189" t="s">
         <v>355</v>
       </c>
@@ -6203,7 +6546,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="190" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:2" ht="12.75">
       <c r="A190" t="s">
         <v>357</v>
       </c>
@@ -6211,7 +6554,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="191" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:2" ht="12.75">
       <c r="A191" t="s">
         <v>359</v>
       </c>
@@ -6219,7 +6562,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="192" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:2" ht="12.75">
       <c r="A192" t="s">
         <v>361</v>
       </c>
@@ -6227,7 +6570,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="193" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:2" ht="12.75">
       <c r="A193" t="s">
         <v>363</v>
       </c>
@@ -6235,7 +6578,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="194" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:2" ht="12.75">
       <c r="A194" t="s">
         <v>365</v>
       </c>
@@ -6243,7 +6586,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="195" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:2" ht="12.75">
       <c r="A195" t="s">
         <v>367</v>
       </c>
@@ -6251,7 +6594,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="196" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:2" ht="12.75">
       <c r="A196" t="s">
         <v>369</v>
       </c>
@@ -6259,7 +6602,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="197" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:2" ht="12.75">
       <c r="A197" t="s">
         <v>371</v>
       </c>
@@ -6267,7 +6610,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="198" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:2" ht="12.75">
       <c r="A198" t="s">
         <v>373</v>
       </c>
@@ -6275,7 +6618,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="199" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:2" ht="12.75">
       <c r="A199" t="s">
         <v>375</v>
       </c>
@@ -6283,7 +6626,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="200" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:2" ht="12.75">
       <c r="A200" t="s">
         <v>377</v>
       </c>
@@ -6291,7 +6634,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="201" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:2" ht="12.75">
       <c r="A201" t="s">
         <v>379</v>
       </c>
@@ -6299,7 +6642,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="202" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:2" ht="12.75">
       <c r="A202" t="s">
         <v>381</v>
       </c>
@@ -6307,7 +6650,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="203" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:2" ht="12.75">
       <c r="A203" t="s">
         <v>383</v>
       </c>
@@ -6315,7 +6658,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="204" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:2" ht="12.75">
       <c r="A204" t="s">
         <v>385</v>
       </c>
@@ -6323,7 +6666,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="205" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:2" ht="12.75">
       <c r="A205" t="s">
         <v>387</v>
       </c>
@@ -6331,7 +6674,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="206" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:2" ht="12.75">
       <c r="A206" t="s">
         <v>389</v>
       </c>
@@ -6339,7 +6682,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="207" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:2" ht="12.75">
       <c r="A207" t="s">
         <v>391</v>
       </c>
@@ -6347,7 +6690,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="208" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:2" ht="12.75">
       <c r="A208" t="s">
         <v>393</v>
       </c>
@@ -6355,7 +6698,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="209" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:2" ht="12.75">
       <c r="A209" t="s">
         <v>395</v>
       </c>
@@ -6363,7 +6706,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="210" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:2" ht="12.75">
       <c r="A210" t="s">
         <v>397</v>
       </c>
@@ -6371,7 +6714,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="211" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:2" ht="12.75">
       <c r="A211" t="s">
         <v>399</v>
       </c>
@@ -6379,7 +6722,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="212" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:2" ht="12.75">
       <c r="A212" t="s">
         <v>401</v>
       </c>
@@ -6387,7 +6730,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="213" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:2" ht="12.75">
       <c r="A213" t="s">
         <v>403</v>
       </c>
@@ -6395,7 +6738,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="214" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:2" ht="12.75">
       <c r="A214" t="s">
         <v>405</v>
       </c>
@@ -6403,7 +6746,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="215" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:2" ht="12.75">
       <c r="A215" t="s">
         <v>407</v>
       </c>
@@ -6411,7 +6754,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="216" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:2" ht="12.75">
       <c r="A216" t="s">
         <v>409</v>
       </c>
@@ -6419,7 +6762,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="217" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:2" ht="12.75">
       <c r="A217" t="s">
         <v>411</v>
       </c>
@@ -6427,7 +6770,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="218" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:2" ht="12.75">
       <c r="A218" t="s">
         <v>413</v>
       </c>
@@ -6435,7 +6778,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="219" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:2" ht="12.75">
       <c r="A219" t="s">
         <v>415</v>
       </c>
@@ -6443,7 +6786,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="220" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:2" ht="12.75">
       <c r="A220" t="s">
         <v>417</v>
       </c>
@@ -6451,7 +6794,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="221" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:2" ht="12.75">
       <c r="A221" t="s">
         <v>419</v>
       </c>
@@ -6459,7 +6802,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="222" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:2" ht="12.75">
       <c r="A222" t="s">
         <v>421</v>
       </c>
@@ -6467,7 +6810,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="223" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:2" ht="12.75">
       <c r="A223" t="s">
         <v>423</v>
       </c>
@@ -6475,7 +6818,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="224" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:2" ht="12.75">
       <c r="A224" t="s">
         <v>425</v>
       </c>
@@ -6483,7 +6826,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="225" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:2" ht="12.75">
       <c r="A225" t="s">
         <v>427</v>
       </c>
@@ -6491,7 +6834,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="226" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:2" ht="12.75">
       <c r="A226" t="s">
         <v>429</v>
       </c>
@@ -6499,7 +6842,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="227" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:2" ht="12.75">
       <c r="A227" t="s">
         <v>431</v>
       </c>
@@ -6507,7 +6850,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="228" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:2" ht="12.75">
       <c r="A228" t="s">
         <v>433</v>
       </c>
@@ -6515,7 +6858,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="229" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:2" ht="12.75">
       <c r="A229" t="s">
         <v>435</v>
       </c>
@@ -6523,7 +6866,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="230" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:2" ht="12.75">
       <c r="A230" t="s">
         <v>437</v>
       </c>
@@ -6531,7 +6874,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="231" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:2" ht="12.75">
       <c r="A231" t="s">
         <v>439</v>
       </c>
@@ -6539,7 +6882,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="232" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:2" ht="12.75">
       <c r="A232" t="s">
         <v>441</v>
       </c>
@@ -6547,7 +6890,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="233" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:2" ht="12.75">
       <c r="A233" t="s">
         <v>443</v>
       </c>
@@ -6555,7 +6898,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="234" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:2" ht="12.75">
       <c r="A234" t="s">
         <v>445</v>
       </c>
@@ -6563,7 +6906,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="235" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:2" ht="12.75">
       <c r="A235" t="s">
         <v>447</v>
       </c>
@@ -6571,7 +6914,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="236" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:2" ht="12.75">
       <c r="A236" t="s">
         <v>449</v>
       </c>
@@ -6579,7 +6922,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="237" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:2" ht="12.75">
       <c r="A237" t="s">
         <v>451</v>
       </c>
@@ -6587,7 +6930,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="238" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:2" ht="12.75">
       <c r="A238" t="s">
         <v>453</v>
       </c>
@@ -6595,7 +6938,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="239" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:2" ht="12.75">
       <c r="A239" t="s">
         <v>455</v>
       </c>
@@ -6603,7 +6946,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="240" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:2" ht="12.75">
       <c r="A240" t="s">
         <v>457</v>
       </c>
@@ -6611,7 +6954,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="241" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:2" ht="12.75">
       <c r="A241" t="s">
         <v>459</v>
       </c>
@@ -6619,7 +6962,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="242" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:2" ht="12.75">
       <c r="A242" t="s">
         <v>461</v>
       </c>
@@ -6627,7 +6970,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="243" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:2" ht="12.75">
       <c r="A243" t="s">
         <v>463</v>
       </c>
@@ -6635,7 +6978,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="244" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:2" ht="12.75">
       <c r="A244" t="s">
         <v>465</v>
       </c>
@@ -6643,7 +6986,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="245" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:2" ht="12.75">
       <c r="A245" t="s">
         <v>467</v>
       </c>
@@ -6651,7 +6994,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="246" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:2" ht="12.75">
       <c r="A246" t="s">
         <v>469</v>
       </c>
@@ -6659,7 +7002,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="247" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:2" ht="12.75">
       <c r="A247" t="s">
         <v>471</v>
       </c>
@@ -6667,7 +7010,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="248" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:2" ht="12.75">
       <c r="A248" t="s">
         <v>473</v>
       </c>
@@ -6675,7 +7018,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="249" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:2" ht="12.75">
       <c r="A249" t="s">
         <v>475</v>
       </c>
@@ -6683,7 +7026,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="250" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:2" ht="12.75">
       <c r="A250" t="s">
         <v>477</v>
       </c>
@@ -6691,7 +7034,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="251" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:2" ht="12.75">
       <c r="A251" t="s">
         <v>479</v>
       </c>
@@ -6699,7 +7042,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="252" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:2" ht="12.75">
       <c r="A252" t="s">
         <v>481</v>
       </c>
@@ -6707,7 +7050,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="253" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:2" ht="12.75">
       <c r="A253" t="s">
         <v>483</v>
       </c>
@@ -6715,7 +7058,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="254" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:2" ht="12.75">
       <c r="A254" t="s">
         <v>485</v>
       </c>
@@ -6723,7 +7066,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="255" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:2" ht="12.75">
       <c r="A255" t="s">
         <v>487</v>
       </c>
@@ -6731,7 +7074,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="256" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:2" ht="12.75">
       <c r="A256" t="s">
         <v>489</v>
       </c>
@@ -6739,7 +7082,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="257" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:2" ht="12.75">
       <c r="A257" t="s">
         <v>491</v>
       </c>
@@ -6747,7 +7090,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="258" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:2" ht="12.75">
       <c r="A258" t="s">
         <v>493</v>
       </c>
@@ -6755,7 +7098,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="259" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:2" ht="12.75">
       <c r="A259" t="s">
         <v>495</v>
       </c>
@@ -6763,7 +7106,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="260" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:2" ht="12.75">
       <c r="A260" t="s">
         <v>497</v>
       </c>
@@ -6771,7 +7114,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="261" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:2" ht="12.75">
       <c r="A261" t="s">
         <v>499</v>
       </c>
@@ -6779,7 +7122,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="262" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:2" ht="12.75">
       <c r="A262" t="s">
         <v>501</v>
       </c>
@@ -6787,7 +7130,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="263" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:2" ht="12.75">
       <c r="A263" t="s">
         <v>503</v>
       </c>
@@ -6795,7 +7138,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="264" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:2" ht="12.75">
       <c r="A264" t="s">
         <v>505</v>
       </c>
@@ -6803,7 +7146,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="265" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:2" ht="12.75">
       <c r="A265" t="s">
         <v>507</v>
       </c>
@@ -6811,7 +7154,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="266" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:2" ht="12.75">
       <c r="A266" t="s">
         <v>509</v>
       </c>
@@ -6819,7 +7162,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="267" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:2" ht="12.75">
       <c r="A267" t="s">
         <v>511</v>
       </c>
@@ -6827,7 +7170,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="268" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:2" ht="12.75">
       <c r="A268" t="s">
         <v>513</v>
       </c>
@@ -6835,7 +7178,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="269" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:2" ht="12.75">
       <c r="A269" t="s">
         <v>515</v>
       </c>
@@ -6843,7 +7186,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="270" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:2" ht="12.75">
       <c r="A270" t="s">
         <v>517</v>
       </c>
@@ -6851,7 +7194,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="271" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:2" ht="12.75">
       <c r="A271" t="s">
         <v>519</v>
       </c>
@@ -6859,7 +7202,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="272" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:2" ht="12.75">
       <c r="A272" t="s">
         <v>521</v>
       </c>
@@ -6867,7 +7210,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="273" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:2" ht="12.75">
       <c r="A273" t="s">
         <v>523</v>
       </c>
@@ -6875,7 +7218,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="274" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:2" ht="12.75">
       <c r="A274" t="s">
         <v>525</v>
       </c>
@@ -6883,7 +7226,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="275" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:2" ht="12.75">
       <c r="A275" t="s">
         <v>527</v>
       </c>
@@ -6891,7 +7234,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="276" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:2" ht="12.75">
       <c r="A276" t="s">
         <v>529</v>
       </c>
@@ -6899,7 +7242,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="277" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:2" ht="12.75">
       <c r="A277" t="s">
         <v>531</v>
       </c>
@@ -6907,7 +7250,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="278" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:2" ht="12.75">
       <c r="A278" t="s">
         <v>533</v>
       </c>
@@ -6915,7 +7258,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="279" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:2" ht="12.75">
       <c r="A279" t="s">
         <v>535</v>
       </c>
@@ -6923,7 +7266,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="280" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:2" ht="12.75">
       <c r="A280" t="s">
         <v>537</v>
       </c>
@@ -6931,7 +7274,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="281" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:2" ht="12.75">
       <c r="A281" t="s">
         <v>539</v>
       </c>
@@ -6939,7 +7282,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="282" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:2" ht="12.75">
       <c r="A282" t="s">
         <v>541</v>
       </c>
@@ -6947,7 +7290,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="283" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:2" ht="12.75">
       <c r="A283" t="s">
         <v>543</v>
       </c>
@@ -6955,7 +7298,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="284" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:2" ht="12.75">
       <c r="A284" t="s">
         <v>545</v>
       </c>
@@ -6963,7 +7306,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="285" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:2" ht="12.75">
       <c r="A285" t="s">
         <v>547</v>
       </c>
@@ -6971,7 +7314,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="286" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:2" ht="12.75">
       <c r="A286" t="s">
         <v>549</v>
       </c>
@@ -6979,7 +7322,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="287" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:2" ht="12.75">
       <c r="A287" t="s">
         <v>551</v>
       </c>
@@ -6987,7 +7330,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="288" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:2" ht="12.75">
       <c r="A288" t="s">
         <v>553</v>
       </c>
@@ -6995,7 +7338,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="289" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:2" ht="12.75">
       <c r="A289" t="s">
         <v>555</v>
       </c>
@@ -7003,7 +7346,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="290" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:2" ht="12.75">
       <c r="A290" t="s">
         <v>557</v>
       </c>
@@ -7011,7 +7354,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="291" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:2" ht="12.75">
       <c r="A291" t="s">
         <v>559</v>
       </c>
@@ -7019,7 +7362,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="292" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:2" ht="12.75">
       <c r="A292" t="s">
         <v>561</v>
       </c>
@@ -7027,7 +7370,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="293" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:2" ht="12.75">
       <c r="A293" t="s">
         <v>563</v>
       </c>
@@ -7035,7 +7378,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="294" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:2" ht="12.75">
       <c r="A294" t="s">
         <v>565</v>
       </c>
@@ -7043,7 +7386,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="295" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:2" ht="12.75">
       <c r="A295" t="s">
         <v>567</v>
       </c>
@@ -7051,7 +7394,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="296" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:2" ht="12.75">
       <c r="A296" t="s">
         <v>569</v>
       </c>
@@ -7059,7 +7402,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="297" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:2" ht="12.75">
       <c r="A297" t="s">
         <v>571</v>
       </c>
@@ -7067,7 +7410,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="298" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:2" ht="12.75">
       <c r="A298" t="s">
         <v>573</v>
       </c>
@@ -7075,7 +7418,7 @@
         <v>574</v>
       </c>
     </row>
-    <row r="299" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:2" ht="12.75">
       <c r="A299" t="s">
         <v>575</v>
       </c>
@@ -7083,7 +7426,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="300" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:2" ht="12.75">
       <c r="A300" t="s">
         <v>577</v>
       </c>
@@ -7091,7 +7434,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="301" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:2" ht="12.75">
       <c r="A301" t="s">
         <v>579</v>
       </c>
@@ -7099,7 +7442,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="302" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:2" ht="12.75">
       <c r="A302" t="s">
         <v>581</v>
       </c>
@@ -7107,7 +7450,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="303" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:2" ht="12.75">
       <c r="A303" t="s">
         <v>583</v>
       </c>
@@ -7115,7 +7458,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="304" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:2" ht="12.75">
       <c r="A304" t="s">
         <v>585</v>
       </c>
@@ -7123,7 +7466,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="305" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:2" ht="12.75">
       <c r="A305" t="s">
         <v>587</v>
       </c>
@@ -7131,7 +7474,7 @@
         <v>588</v>
       </c>
     </row>
-    <row r="306" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:2" ht="12.75">
       <c r="A306" t="s">
         <v>589</v>
       </c>
@@ -7139,7 +7482,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="307" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:2" ht="12.75">
       <c r="A307" t="s">
         <v>591</v>
       </c>
@@ -7147,7 +7490,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="308" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:2" ht="12.75">
       <c r="A308" t="s">
         <v>593</v>
       </c>
@@ -7155,7 +7498,7 @@
         <v>594</v>
       </c>
     </row>
-    <row r="309" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:2" ht="12.75">
       <c r="A309" t="s">
         <v>595</v>
       </c>
@@ -7163,7 +7506,7 @@
         <v>596</v>
       </c>
     </row>
-    <row r="310" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:2" ht="12.75">
       <c r="A310" t="s">
         <v>597</v>
       </c>
@@ -7171,7 +7514,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="311" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:2" ht="12.75">
       <c r="A311" t="s">
         <v>599</v>
       </c>
@@ -7179,7 +7522,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="312" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:2" ht="12.75">
       <c r="A312" t="s">
         <v>601</v>
       </c>
@@ -7187,7 +7530,7 @@
         <v>602</v>
       </c>
     </row>
-    <row r="313" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:2" ht="12.75">
       <c r="A313" t="s">
         <v>603</v>
       </c>
@@ -7195,7 +7538,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="314" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:2" ht="12.75">
       <c r="A314" t="s">
         <v>605</v>
       </c>
@@ -7203,7 +7546,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="315" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:2" ht="12.75">
       <c r="A315" t="s">
         <v>607</v>
       </c>
@@ -7211,7 +7554,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="316" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:2" ht="12.75">
       <c r="A316" t="s">
         <v>609</v>
       </c>
@@ -7219,7 +7562,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="317" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:2" ht="12.75">
       <c r="A317" t="s">
         <v>611</v>
       </c>
@@ -7227,7 +7570,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="318" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:2" ht="12.75">
       <c r="A318" t="s">
         <v>613</v>
       </c>
@@ -7235,7 +7578,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="319" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:2" ht="12.75">
       <c r="A319" t="s">
         <v>615</v>
       </c>
@@ -7243,7 +7586,7 @@
         <v>616</v>
       </c>
     </row>
-    <row r="320" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:2" ht="12.75">
       <c r="A320" t="s">
         <v>617</v>
       </c>
@@ -7251,7 +7594,7 @@
         <v>618</v>
       </c>
     </row>
-    <row r="321" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:2" ht="12.75">
       <c r="A321" t="s">
         <v>619</v>
       </c>
@@ -7259,7 +7602,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="322" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:2" ht="12.75">
       <c r="A322" t="s">
         <v>621</v>
       </c>
@@ -7267,7 +7610,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="323" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:2" ht="12.75">
       <c r="A323" t="s">
         <v>623</v>
       </c>
@@ -7275,7 +7618,7 @@
         <v>624</v>
       </c>
     </row>
-    <row r="324" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:2" ht="12.75">
       <c r="A324" t="s">
         <v>625</v>
       </c>
@@ -7283,7 +7626,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="325" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:2" ht="12.75">
       <c r="A325" t="s">
         <v>627</v>
       </c>
@@ -7291,7 +7634,7 @@
         <v>628</v>
       </c>
     </row>
-    <row r="326" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:2" ht="12.75">
       <c r="A326" t="s">
         <v>629</v>
       </c>
@@ -7299,7 +7642,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="327" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:2" ht="12.75">
       <c r="A327" t="s">
         <v>631</v>
       </c>
@@ -7307,7 +7650,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="328" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:2" ht="12.75">
       <c r="A328" t="s">
         <v>633</v>
       </c>
@@ -7315,7 +7658,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="329" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:2" ht="12.75">
       <c r="A329" t="s">
         <v>635</v>
       </c>
@@ -7323,7 +7666,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="330" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:2" ht="12.75">
       <c r="A330" t="s">
         <v>637</v>
       </c>
@@ -7331,7 +7674,7 @@
         <v>638</v>
       </c>
     </row>
-    <row r="331" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:2" ht="12.75">
       <c r="A331" t="s">
         <v>639</v>
       </c>
@@ -7339,7 +7682,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="332" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:2" ht="12.75">
       <c r="A332" t="s">
         <v>641</v>
       </c>
@@ -7347,7 +7690,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="333" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:2" ht="12.75">
       <c r="A333" t="s">
         <v>643</v>
       </c>
@@ -7355,7 +7698,7 @@
         <v>644</v>
       </c>
     </row>
-    <row r="334" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:2" ht="12.75">
       <c r="A334" t="s">
         <v>645</v>
       </c>
@@ -7363,7 +7706,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="335" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:2" ht="12.75">
       <c r="A335" t="s">
         <v>647</v>
       </c>
@@ -7371,7 +7714,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="336" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:2" ht="12.75">
       <c r="A336" t="s">
         <v>649</v>
       </c>
@@ -7379,7 +7722,7 @@
         <v>650</v>
       </c>
     </row>
-    <row r="337" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:2" ht="12.75">
       <c r="A337" t="s">
         <v>651</v>
       </c>
@@ -7387,7 +7730,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="338" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:2" ht="12.75">
       <c r="A338" t="s">
         <v>653</v>
       </c>
@@ -7395,7 +7738,7 @@
         <v>654</v>
       </c>
     </row>
-    <row r="339" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:2" ht="12.75">
       <c r="A339" t="s">
         <v>655</v>
       </c>
@@ -7403,7 +7746,7 @@
         <v>656</v>
       </c>
     </row>
-    <row r="340" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:2" ht="12.75">
       <c r="A340" t="s">
         <v>657</v>
       </c>
@@ -7411,7 +7754,7 @@
         <v>658</v>
       </c>
     </row>
-    <row r="341" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:2" ht="12.75">
       <c r="A341" t="s">
         <v>659</v>
       </c>
@@ -7419,7 +7762,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="342" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:2" ht="12.75">
       <c r="A342" t="s">
         <v>661</v>
       </c>
@@ -7427,7 +7770,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="343" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:2" ht="12.75">
       <c r="A343" t="s">
         <v>663</v>
       </c>
@@ -7435,7 +7778,7 @@
         <v>664</v>
       </c>
     </row>
-    <row r="344" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:2" ht="12.75">
       <c r="A344" t="s">
         <v>665</v>
       </c>
@@ -7443,7 +7786,7 @@
         <v>666</v>
       </c>
     </row>
-    <row r="345" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:2" ht="12.75">
       <c r="A345" t="s">
         <v>667</v>
       </c>
@@ -7451,7 +7794,7 @@
         <v>668</v>
       </c>
     </row>
-    <row r="346" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:2" ht="12.75">
       <c r="A346" t="s">
         <v>669</v>
       </c>
@@ -7459,7 +7802,7 @@
         <v>670</v>
       </c>
     </row>
-    <row r="347" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:2" ht="12.75">
       <c r="A347" t="s">
         <v>671</v>
       </c>
@@ -7467,7 +7810,7 @@
         <v>672</v>
       </c>
     </row>
-    <row r="348" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:2" ht="12.75">
       <c r="A348" t="s">
         <v>673</v>
       </c>
@@ -7475,7 +7818,7 @@
         <v>674</v>
       </c>
     </row>
-    <row r="349" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:2" ht="12.75">
       <c r="A349" t="s">
         <v>675</v>
       </c>
@@ -7483,7 +7826,7 @@
         <v>676</v>
       </c>
     </row>
-    <row r="350" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:2" ht="12.75">
       <c r="A350" t="s">
         <v>677</v>
       </c>
@@ -7491,7 +7834,7 @@
         <v>678</v>
       </c>
     </row>
-    <row r="351" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:2" ht="12.75">
       <c r="A351" t="s">
         <v>679</v>
       </c>
@@ -7499,7 +7842,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="352" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:2" ht="12.75">
       <c r="A352" t="s">
         <v>681</v>
       </c>
@@ -7507,7 +7850,7 @@
         <v>682</v>
       </c>
     </row>
-    <row r="353" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:2" ht="12.75">
       <c r="A353" t="s">
         <v>683</v>
       </c>
@@ -7515,7 +7858,7 @@
         <v>684</v>
       </c>
     </row>
-    <row r="354" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:2" ht="12.75">
       <c r="A354" t="s">
         <v>685</v>
       </c>
@@ -7523,7 +7866,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="355" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:2" ht="12.75">
       <c r="A355" t="s">
         <v>687</v>
       </c>
@@ -7531,7 +7874,7 @@
         <v>688</v>
       </c>
     </row>
-    <row r="356" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:2" ht="12.75">
       <c r="A356" t="s">
         <v>689</v>
       </c>
@@ -7539,7 +7882,7 @@
         <v>690</v>
       </c>
     </row>
-    <row r="357" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:2" ht="12.75">
       <c r="A357" t="s">
         <v>691</v>
       </c>
@@ -7547,7 +7890,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="358" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:2" ht="12.75">
       <c r="A358" t="s">
         <v>693</v>
       </c>
@@ -7555,7 +7898,7 @@
         <v>694</v>
       </c>
     </row>
-    <row r="359" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:2" ht="12.75">
       <c r="A359" t="s">
         <v>695</v>
       </c>
@@ -7563,7 +7906,7 @@
         <v>696</v>
       </c>
     </row>
-    <row r="360" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:2" ht="12.75">
       <c r="A360" t="s">
         <v>697</v>
       </c>
@@ -7571,7 +7914,7 @@
         <v>698</v>
       </c>
     </row>
-    <row r="361" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:2" ht="12.75">
       <c r="A361" t="s">
         <v>699</v>
       </c>
@@ -7579,7 +7922,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="362" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:2" ht="12.75">
       <c r="A362" t="s">
         <v>701</v>
       </c>
@@ -7587,7 +7930,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="363" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:2" ht="12.75">
       <c r="A363" t="s">
         <v>703</v>
       </c>
@@ -7595,7 +7938,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="364" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:2" ht="12.75">
       <c r="A364" t="s">
         <v>705</v>
       </c>
@@ -7603,7 +7946,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="365" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:2" ht="12.75">
       <c r="A365" t="s">
         <v>707</v>
       </c>
@@ -7611,7 +7954,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="366" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:2" ht="12.75">
       <c r="A366" t="s">
         <v>709</v>
       </c>
@@ -7619,7 +7962,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="367" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:2" ht="12.75">
       <c r="A367" t="s">
         <v>711</v>
       </c>
@@ -7627,7 +7970,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="368" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:2" ht="12.75">
       <c r="A368" t="s">
         <v>713</v>
       </c>
@@ -7635,7 +7978,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="369" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:2" ht="12.75">
       <c r="A369" t="s">
         <v>715</v>
       </c>
@@ -7643,7 +7986,7 @@
         <v>716</v>
       </c>
     </row>
-    <row r="370" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:2" ht="12.75">
       <c r="A370" t="s">
         <v>717</v>
       </c>
@@ -7651,7 +7994,7 @@
         <v>718</v>
       </c>
     </row>
-    <row r="371" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:2" ht="12.75">
       <c r="A371" t="s">
         <v>719</v>
       </c>
@@ -7659,7 +8002,7 @@
         <v>720</v>
       </c>
     </row>
-    <row r="372" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:2" ht="12.75">
       <c r="A372" t="s">
         <v>721</v>
       </c>
@@ -7667,7 +8010,7 @@
         <v>722</v>
       </c>
     </row>
-    <row r="373" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:2" ht="12.75">
       <c r="A373" t="s">
         <v>723</v>
       </c>
@@ -7675,7 +8018,7 @@
         <v>724</v>
       </c>
     </row>
-    <row r="374" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:2" ht="12.75">
       <c r="A374" t="s">
         <v>725</v>
       </c>
@@ -7683,7 +8026,7 @@
         <v>726</v>
       </c>
     </row>
-    <row r="375" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:2" ht="12.75">
       <c r="A375" t="s">
         <v>727</v>
       </c>
@@ -7691,7 +8034,7 @@
         <v>728</v>
       </c>
     </row>
-    <row r="376" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:2" ht="12.75">
       <c r="A376" t="s">
         <v>729</v>
       </c>
@@ -7699,7 +8042,7 @@
         <v>730</v>
       </c>
     </row>
-    <row r="377" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:2" ht="12.75">
       <c r="A377" t="s">
         <v>731</v>
       </c>
@@ -7707,7 +8050,7 @@
         <v>732</v>
       </c>
     </row>
-    <row r="378" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:2" ht="12.75">
       <c r="A378" t="s">
         <v>733</v>
       </c>
@@ -7715,7 +8058,7 @@
         <v>734</v>
       </c>
     </row>
-    <row r="379" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:2" ht="12.75">
       <c r="A379" t="s">
         <v>735</v>
       </c>
@@ -7723,7 +8066,7 @@
         <v>736</v>
       </c>
     </row>
-    <row r="380" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:2" ht="12.75">
       <c r="A380" t="s">
         <v>737</v>
       </c>
@@ -7731,7 +8074,7 @@
         <v>738</v>
       </c>
     </row>
-    <row r="381" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:2" ht="12.75">
       <c r="A381" t="s">
         <v>739</v>
       </c>
@@ -7739,7 +8082,7 @@
         <v>740</v>
       </c>
     </row>
-    <row r="382" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:2" ht="12.75">
       <c r="A382" t="s">
         <v>741</v>
       </c>
@@ -7747,7 +8090,7 @@
         <v>742</v>
       </c>
     </row>
-    <row r="383" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:2" ht="12.75">
       <c r="A383" t="s">
         <v>743</v>
       </c>
@@ -7755,7 +8098,7 @@
         <v>744</v>
       </c>
     </row>
-    <row r="384" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:2" ht="12.75">
       <c r="A384" t="s">
         <v>745</v>
       </c>
@@ -7763,7 +8106,7 @@
         <v>746</v>
       </c>
     </row>
-    <row r="385" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:2" ht="12.75">
       <c r="A385" t="s">
         <v>747</v>
       </c>
@@ -7771,7 +8114,7 @@
         <v>748</v>
       </c>
     </row>
-    <row r="386" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:2" ht="12.75">
       <c r="A386" t="s">
         <v>749</v>
       </c>
@@ -7779,7 +8122,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="387" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:2" ht="12.75">
       <c r="A387" t="s">
         <v>751</v>
       </c>
@@ -7787,7 +8130,7 @@
         <v>752</v>
       </c>
     </row>
-    <row r="388" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:2" ht="12.75">
       <c r="A388" t="s">
         <v>753</v>
       </c>
@@ -7795,7 +8138,7 @@
         <v>754</v>
       </c>
     </row>
-    <row r="389" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:2" ht="12.75">
       <c r="A389" t="s">
         <v>755</v>
       </c>
@@ -7803,7 +8146,7 @@
         <v>756</v>
       </c>
     </row>
-    <row r="390" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:2" ht="12.75">
       <c r="A390" t="s">
         <v>757</v>
       </c>
@@ -7811,7 +8154,7 @@
         <v>758</v>
       </c>
     </row>
-    <row r="391" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:2" ht="12.75">
       <c r="A391" t="s">
         <v>759</v>
       </c>
@@ -7819,7 +8162,7 @@
         <v>760</v>
       </c>
     </row>
-    <row r="392" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:2" ht="12.75">
       <c r="A392" t="s">
         <v>761</v>
       </c>
@@ -7827,7 +8170,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="393" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:2" ht="12.75">
       <c r="A393" t="s">
         <v>763</v>
       </c>
@@ -7835,7 +8178,7 @@
         <v>764</v>
       </c>
     </row>
-    <row r="394" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:2" ht="12.75">
       <c r="A394" t="s">
         <v>765</v>
       </c>
@@ -7843,7 +8186,7 @@
         <v>766</v>
       </c>
     </row>
-    <row r="395" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:2" ht="12.75">
       <c r="A395" t="s">
         <v>767</v>
       </c>
@@ -7851,7 +8194,7 @@
         <v>768</v>
       </c>
     </row>
-    <row r="396" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:2" ht="12.75">
       <c r="A396" t="s">
         <v>769</v>
       </c>
@@ -7859,7 +8202,7 @@
         <v>770</v>
       </c>
     </row>
-    <row r="397" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:2" ht="12.75">
       <c r="A397" t="s">
         <v>771</v>
       </c>
@@ -7867,7 +8210,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="398" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:2" ht="12.75">
       <c r="A398" t="s">
         <v>773</v>
       </c>
@@ -7875,7 +8218,7 @@
         <v>774</v>
       </c>
     </row>
-    <row r="399" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:2" ht="12.75">
       <c r="A399" t="s">
         <v>775</v>
       </c>
@@ -7883,7 +8226,7 @@
         <v>776</v>
       </c>
     </row>
-    <row r="400" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:2" ht="12.75">
       <c r="A400" t="s">
         <v>777</v>
       </c>
@@ -7891,7 +8234,7 @@
         <v>778</v>
       </c>
     </row>
-    <row r="401" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:2" ht="12.75">
       <c r="A401" t="s">
         <v>779</v>
       </c>
@@ -7899,7 +8242,7 @@
         <v>780</v>
       </c>
     </row>
-    <row r="402" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:2" ht="12.75">
       <c r="A402" t="s">
         <v>781</v>
       </c>
@@ -7907,7 +8250,7 @@
         <v>782</v>
       </c>
     </row>
-    <row r="403" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:2" ht="12.75">
       <c r="A403" t="s">
         <v>783</v>
       </c>
@@ -7915,7 +8258,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="404" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:2" ht="12.75">
       <c r="A404" t="s">
         <v>785</v>
       </c>
@@ -7923,7 +8266,7 @@
         <v>786</v>
       </c>
     </row>
-    <row r="405" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:2" ht="12.75">
       <c r="A405" t="s">
         <v>787</v>
       </c>
@@ -7931,7 +8274,7 @@
         <v>788</v>
       </c>
     </row>
-    <row r="406" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:2" ht="12.75">
       <c r="A406" t="s">
         <v>789</v>
       </c>
@@ -7939,7 +8282,7 @@
         <v>790</v>
       </c>
     </row>
-    <row r="407" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:2" ht="12.75">
       <c r="A407" t="s">
         <v>791</v>
       </c>
@@ -7947,7 +8290,7 @@
         <v>792</v>
       </c>
     </row>
-    <row r="408" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:2" ht="12.75">
       <c r="A408" t="s">
         <v>793</v>
       </c>
@@ -7955,7 +8298,7 @@
         <v>794</v>
       </c>
     </row>
-    <row r="409" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:2" ht="12.75">
       <c r="A409" t="s">
         <v>795</v>
       </c>
@@ -7963,7 +8306,7 @@
         <v>796</v>
       </c>
     </row>
-    <row r="410" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:2" ht="12.75">
       <c r="A410" t="s">
         <v>797</v>
       </c>
@@ -7971,7 +8314,7 @@
         <v>798</v>
       </c>
     </row>
-    <row r="411" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:2" ht="12.75">
       <c r="A411" t="s">
         <v>799</v>
       </c>
@@ -7979,7 +8322,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="412" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:2" ht="12.75">
       <c r="A412" t="s">
         <v>801</v>
       </c>
@@ -7987,7 +8330,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="413" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:2" ht="12.75">
       <c r="A413" t="s">
         <v>803</v>
       </c>
@@ -7995,7 +8338,7 @@
         <v>804</v>
       </c>
     </row>
-    <row r="414" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:2" ht="12.75">
       <c r="A414" t="s">
         <v>805</v>
       </c>
@@ -8003,7 +8346,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="415" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:2" ht="12.75">
       <c r="A415" t="s">
         <v>807</v>
       </c>
@@ -8011,7 +8354,7 @@
         <v>808</v>
       </c>
     </row>
-    <row r="416" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:2" ht="12.75">
       <c r="A416" t="s">
         <v>809</v>
       </c>
@@ -8019,7 +8362,7 @@
         <v>810</v>
       </c>
     </row>
-    <row r="417" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:2" ht="12.75">
       <c r="A417" t="s">
         <v>811</v>
       </c>
@@ -8027,7 +8370,7 @@
         <v>812</v>
       </c>
     </row>
-    <row r="418" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:2" ht="12.75">
       <c r="A418" t="s">
         <v>813</v>
       </c>
@@ -8035,7 +8378,7 @@
         <v>814</v>
       </c>
     </row>
-    <row r="419" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:2" ht="12.75">
       <c r="A419" t="s">
         <v>815</v>
       </c>
@@ -8043,7 +8386,7 @@
         <v>816</v>
       </c>
     </row>
-    <row r="420" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:2" ht="12.75">
       <c r="A420" t="s">
         <v>817</v>
       </c>
@@ -8051,7 +8394,7 @@
         <v>818</v>
       </c>
     </row>
-    <row r="421" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:2" ht="12.75">
       <c r="A421" t="s">
         <v>819</v>
       </c>
@@ -8059,7 +8402,7 @@
         <v>820</v>
       </c>
     </row>
-    <row r="422" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:2" ht="12.75">
       <c r="A422" t="s">
         <v>821</v>
       </c>
@@ -8067,7 +8410,7 @@
         <v>822</v>
       </c>
     </row>
-    <row r="423" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:2" ht="12.75">
       <c r="A423" t="s">
         <v>823</v>
       </c>
@@ -8075,7 +8418,7 @@
         <v>824</v>
       </c>
     </row>
-    <row r="424" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:2" ht="12.75">
       <c r="A424" t="s">
         <v>825</v>
       </c>
@@ -8083,7 +8426,7 @@
         <v>826</v>
       </c>
     </row>
-    <row r="425" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:2" ht="12.75">
       <c r="A425" t="s">
         <v>827</v>
       </c>
@@ -8091,7 +8434,7 @@
         <v>828</v>
       </c>
     </row>
-    <row r="426" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:2" ht="12.75">
       <c r="A426" t="s">
         <v>829</v>
       </c>
@@ -8099,7 +8442,7 @@
         <v>830</v>
       </c>
     </row>
-    <row r="427" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:2" ht="12.75">
       <c r="A427" t="s">
         <v>831</v>
       </c>
@@ -8107,7 +8450,7 @@
         <v>832</v>
       </c>
     </row>
-    <row r="428" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:2" ht="12.75">
       <c r="A428" t="s">
         <v>833</v>
       </c>
@@ -8115,7 +8458,7 @@
         <v>834</v>
       </c>
     </row>
-    <row r="429" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:2" ht="12.75">
       <c r="A429" t="s">
         <v>835</v>
       </c>
@@ -8123,7 +8466,7 @@
         <v>836</v>
       </c>
     </row>
-    <row r="430" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:2" ht="12.75">
       <c r="A430" t="s">
         <v>837</v>
       </c>
@@ -8131,7 +8474,7 @@
         <v>838</v>
       </c>
     </row>
-    <row r="431" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:2" ht="12.75">
       <c r="A431" t="s">
         <v>839</v>
       </c>
@@ -8139,7 +8482,7 @@
         <v>840</v>
       </c>
     </row>
-    <row r="432" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:2" ht="12.75">
       <c r="A432" t="s">
         <v>841</v>
       </c>
@@ -8147,7 +8490,7 @@
         <v>842</v>
       </c>
     </row>
-    <row r="433" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:2" ht="12.75">
       <c r="A433" t="s">
         <v>843</v>
       </c>
@@ -8155,7 +8498,7 @@
         <v>844</v>
       </c>
     </row>
-    <row r="434" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:2" ht="12.75">
       <c r="A434" t="s">
         <v>845</v>
       </c>
@@ -8163,7 +8506,7 @@
         <v>846</v>
       </c>
     </row>
-    <row r="435" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:2" ht="12.75">
       <c r="A435" t="s">
         <v>847</v>
       </c>
@@ -8171,7 +8514,7 @@
         <v>848</v>
       </c>
     </row>
-    <row r="436" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:2" ht="12.75">
       <c r="A436" t="s">
         <v>849</v>
       </c>
@@ -8179,7 +8522,7 @@
         <v>850</v>
       </c>
     </row>
-    <row r="437" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:2" ht="12.75">
       <c r="A437" t="s">
         <v>851</v>
       </c>
@@ -8187,7 +8530,7 @@
         <v>852</v>
       </c>
     </row>
-    <row r="438" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:2" ht="12.75">
       <c r="A438" t="s">
         <v>853</v>
       </c>
@@ -8195,7 +8538,7 @@
         <v>854</v>
       </c>
     </row>
-    <row r="439" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:2" ht="12.75">
       <c r="A439" t="s">
         <v>855</v>
       </c>
@@ -8203,7 +8546,7 @@
         <v>856</v>
       </c>
     </row>
-    <row r="440" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:2" ht="12.75">
       <c r="A440" t="s">
         <v>857</v>
       </c>
@@ -8211,7 +8554,7 @@
         <v>858</v>
       </c>
     </row>
-    <row r="441" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:2" ht="12.75">
       <c r="A441" t="s">
         <v>859</v>
       </c>
@@ -8219,7 +8562,7 @@
         <v>860</v>
       </c>
     </row>
-    <row r="442" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:2" ht="12.75">
       <c r="A442" t="s">
         <v>861</v>
       </c>
@@ -8227,7 +8570,7 @@
         <v>862</v>
       </c>
     </row>
-    <row r="443" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:2" ht="12.75">
       <c r="A443" t="s">
         <v>863</v>
       </c>
@@ -8235,7 +8578,7 @@
         <v>864</v>
       </c>
     </row>
-    <row r="444" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:2" ht="12.75">
       <c r="A444" t="s">
         <v>865</v>
       </c>
@@ -8243,7 +8586,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="445" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:2" ht="12.75">
       <c r="A445" t="s">
         <v>867</v>
       </c>
@@ -8251,7 +8594,7 @@
         <v>868</v>
       </c>
     </row>
-    <row r="446" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:2" ht="12.75">
       <c r="A446" t="s">
         <v>869</v>
       </c>
@@ -8259,7 +8602,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="447" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:2" ht="12.75">
       <c r="A447" t="s">
         <v>871</v>
       </c>
@@ -8267,7 +8610,7 @@
         <v>872</v>
       </c>
     </row>
-    <row r="448" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:2" ht="12.75">
       <c r="A448" t="s">
         <v>873</v>
       </c>
@@ -8275,7 +8618,7 @@
         <v>874</v>
       </c>
     </row>
-    <row r="449" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:2" ht="12.75">
       <c r="A449" t="s">
         <v>875</v>
       </c>
@@ -8283,7 +8626,7 @@
         <v>876</v>
       </c>
     </row>
-    <row r="450" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:2" ht="12.75">
       <c r="A450" t="s">
         <v>877</v>
       </c>
@@ -8291,7 +8634,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="451" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:2" ht="12.75">
       <c r="A451" t="s">
         <v>879</v>
       </c>
@@ -8299,7 +8642,7 @@
         <v>880</v>
       </c>
     </row>
-    <row r="452" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:2" ht="12.75">
       <c r="A452" t="s">
         <v>881</v>
       </c>
@@ -8307,7 +8650,7 @@
         <v>882</v>
       </c>
     </row>
-    <row r="453" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:2" ht="12.75">
       <c r="A453" t="s">
         <v>883</v>
       </c>
@@ -8315,7 +8658,7 @@
         <v>884</v>
       </c>
     </row>
-    <row r="454" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:2" ht="12.75">
       <c r="A454" t="s">
         <v>885</v>
       </c>
@@ -8323,7 +8666,7 @@
         <v>886</v>
       </c>
     </row>
-    <row r="455" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:2" ht="12.75">
       <c r="A455" t="s">
         <v>887</v>
       </c>
@@ -8331,7 +8674,7 @@
         <v>888</v>
       </c>
     </row>
-    <row r="456" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:2" ht="12.75">
       <c r="A456" t="s">
         <v>889</v>
       </c>
@@ -8339,7 +8682,7 @@
         <v>890</v>
       </c>
     </row>
-    <row r="457" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:2" ht="12.75">
       <c r="A457" t="s">
         <v>891</v>
       </c>
@@ -8347,7 +8690,7 @@
         <v>892</v>
       </c>
     </row>
-    <row r="458" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:2" ht="12.75">
       <c r="A458" t="s">
         <v>893</v>
       </c>
@@ -8355,7 +8698,7 @@
         <v>894</v>
       </c>
     </row>
-    <row r="459" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:2" ht="12.75">
       <c r="A459" t="s">
         <v>895</v>
       </c>
@@ -8363,7 +8706,7 @@
         <v>896</v>
       </c>
     </row>
-    <row r="460" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:2" ht="12.75">
       <c r="A460" t="s">
         <v>897</v>
       </c>
@@ -8371,7 +8714,7 @@
         <v>898</v>
       </c>
     </row>
-    <row r="461" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:2" ht="12.75">
       <c r="A461" t="s">
         <v>899</v>
       </c>
@@ -8379,7 +8722,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="462" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:2" ht="12.75">
       <c r="A462" t="s">
         <v>901</v>
       </c>
@@ -8387,7 +8730,7 @@
         <v>902</v>
       </c>
     </row>
-    <row r="463" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:2" ht="12.75">
       <c r="A463" t="s">
         <v>903</v>
       </c>
@@ -8395,7 +8738,7 @@
         <v>904</v>
       </c>
     </row>
-    <row r="464" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:2" ht="12.75">
       <c r="A464" t="s">
         <v>905</v>
       </c>
@@ -8403,7 +8746,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="465" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:2" ht="12.75">
       <c r="A465" t="s">
         <v>907</v>
       </c>
@@ -8411,7 +8754,7 @@
         <v>908</v>
       </c>
     </row>
-    <row r="466" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:2" ht="12.75">
       <c r="A466" t="s">
         <v>909</v>
       </c>
@@ -8419,7 +8762,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="467" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:2" ht="12.75">
       <c r="A467" t="s">
         <v>911</v>
       </c>
@@ -8427,7 +8770,7 @@
         <v>912</v>
       </c>
     </row>
-    <row r="468" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:2" ht="12.75">
       <c r="A468" t="s">
         <v>913</v>
       </c>
@@ -8435,7 +8778,7 @@
         <v>914</v>
       </c>
     </row>
-    <row r="469" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:2" ht="12.75">
       <c r="A469" t="s">
         <v>915</v>
       </c>
@@ -8443,7 +8786,7 @@
         <v>916</v>
       </c>
     </row>
-    <row r="470" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:2" ht="12.75">
       <c r="A470" t="s">
         <v>917</v>
       </c>
@@ -8451,7 +8794,7 @@
         <v>918</v>
       </c>
     </row>
-    <row r="471" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:2" ht="12.75">
       <c r="A471" t="s">
         <v>919</v>
       </c>
@@ -8459,7 +8802,7 @@
         <v>920</v>
       </c>
     </row>
-    <row r="472" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:2" ht="12.75">
       <c r="A472" t="s">
         <v>921</v>
       </c>
@@ -8467,7 +8810,7 @@
         <v>922</v>
       </c>
     </row>
-    <row r="473" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:2" ht="12.75">
       <c r="A473" t="s">
         <v>923</v>
       </c>
@@ -8475,7 +8818,7 @@
         <v>924</v>
       </c>
     </row>
-    <row r="474" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:2" ht="12.75">
       <c r="A474" t="s">
         <v>925</v>
       </c>
@@ -8483,7 +8826,7 @@
         <v>926</v>
       </c>
     </row>
-    <row r="475" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:2" ht="12.75">
       <c r="A475" t="s">
         <v>927</v>
       </c>
@@ -8491,7 +8834,7 @@
         <v>928</v>
       </c>
     </row>
-    <row r="476" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:2" ht="12.75">
       <c r="A476" t="s">
         <v>929</v>
       </c>
@@ -8499,7 +8842,7 @@
         <v>930</v>
       </c>
     </row>
-    <row r="477" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:2" ht="12.75">
       <c r="A477" t="s">
         <v>931</v>
       </c>
@@ -8507,7 +8850,7 @@
         <v>932</v>
       </c>
     </row>
-    <row r="478" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:2" ht="12.75">
       <c r="A478" t="s">
         <v>933</v>
       </c>
@@ -8515,7 +8858,7 @@
         <v>934</v>
       </c>
     </row>
-    <row r="479" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:2" ht="12.75">
       <c r="A479" t="s">
         <v>935</v>
       </c>
@@ -8523,7 +8866,7 @@
         <v>936</v>
       </c>
     </row>
-    <row r="480" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:2" ht="12.75">
       <c r="A480" t="s">
         <v>937</v>
       </c>
@@ -8531,7 +8874,7 @@
         <v>938</v>
       </c>
     </row>
-    <row r="481" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:2" ht="12.75">
       <c r="A481" t="s">
         <v>939</v>
       </c>
@@ -8539,7 +8882,7 @@
         <v>940</v>
       </c>
     </row>
-    <row r="482" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:2" ht="12.75">
       <c r="A482" t="s">
         <v>941</v>
       </c>
@@ -8547,7 +8890,7 @@
         <v>942</v>
       </c>
     </row>
-    <row r="483" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:2" ht="12.75">
       <c r="A483" t="s">
         <v>943</v>
       </c>
@@ -8555,7 +8898,7 @@
         <v>944</v>
       </c>
     </row>
-    <row r="484" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:2" ht="12.75">
       <c r="A484" t="s">
         <v>945</v>
       </c>
@@ -8563,7 +8906,7 @@
         <v>946</v>
       </c>
     </row>
-    <row r="485" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:2" ht="12.75">
       <c r="A485" t="s">
         <v>947</v>
       </c>
@@ -8571,7 +8914,7 @@
         <v>948</v>
       </c>
     </row>
-    <row r="486" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:2" ht="12.75">
       <c r="A486" t="s">
         <v>949</v>
       </c>
@@ -8579,7 +8922,7 @@
         <v>950</v>
       </c>
     </row>
-    <row r="487" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:2" ht="12.75">
       <c r="A487" t="s">
         <v>951</v>
       </c>
@@ -8587,7 +8930,7 @@
         <v>952</v>
       </c>
     </row>
-    <row r="488" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:2" ht="12.75">
       <c r="A488" t="s">
         <v>953</v>
       </c>
@@ -8595,7 +8938,7 @@
         <v>954</v>
       </c>
     </row>
-    <row r="489" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:2" ht="12.75">
       <c r="A489" t="s">
         <v>955</v>
       </c>
@@ -8603,7 +8946,7 @@
         <v>956</v>
       </c>
     </row>
-    <row r="490" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:2" ht="12.75">
       <c r="A490" t="s">
         <v>957</v>
       </c>
@@ -8611,7 +8954,7 @@
         <v>958</v>
       </c>
     </row>
-    <row r="491" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:2" ht="12.75">
       <c r="A491" t="s">
         <v>959</v>
       </c>
@@ -8619,7 +8962,7 @@
         <v>960</v>
       </c>
     </row>
-    <row r="492" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:2" ht="12.75">
       <c r="A492" t="s">
         <v>961</v>
       </c>
@@ -8627,7 +8970,7 @@
         <v>962</v>
       </c>
     </row>
-    <row r="493" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:2" ht="12.75">
       <c r="A493" t="s">
         <v>963</v>
       </c>
@@ -8635,7 +8978,7 @@
         <v>964</v>
       </c>
     </row>
-    <row r="494" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:2" ht="12.75">
       <c r="A494" t="s">
         <v>965</v>
       </c>
@@ -8643,7 +8986,7 @@
         <v>966</v>
       </c>
     </row>
-    <row r="495" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:2" ht="12.75">
       <c r="A495" t="s">
         <v>967</v>
       </c>
@@ -8651,7 +8994,7 @@
         <v>968</v>
       </c>
     </row>
-    <row r="496" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:2" ht="12.75">
       <c r="A496" t="s">
         <v>969</v>
       </c>
@@ -8659,7 +9002,7 @@
         <v>970</v>
       </c>
     </row>
-    <row r="497" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:2" ht="12.75">
       <c r="A497" t="s">
         <v>971</v>
       </c>
@@ -8667,7 +9010,7 @@
         <v>972</v>
       </c>
     </row>
-    <row r="498" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:2" ht="12.75">
       <c r="A498" t="s">
         <v>973</v>
       </c>
@@ -8675,7 +9018,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="499" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:2" ht="12.75">
       <c r="A499" t="s">
         <v>975</v>
       </c>
@@ -8683,7 +9026,7 @@
         <v>976</v>
       </c>
     </row>
-    <row r="500" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:2" ht="12.75">
       <c r="A500" t="s">
         <v>977</v>
       </c>
@@ -8691,7 +9034,7 @@
         <v>978</v>
       </c>
     </row>
-    <row r="501" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:2" ht="12.75">
       <c r="A501" t="s">
         <v>979</v>
       </c>
@@ -8699,7 +9042,7 @@
         <v>980</v>
       </c>
     </row>
-    <row r="502" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="502" spans="1:2" ht="12.75">
       <c r="A502" t="s">
         <v>981</v>
       </c>
@@ -8707,7 +9050,7 @@
         <v>982</v>
       </c>
     </row>
-    <row r="503" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="503" spans="1:2" ht="12.75">
       <c r="A503" t="s">
         <v>983</v>
       </c>
@@ -8715,7 +9058,7 @@
         <v>984</v>
       </c>
     </row>
-    <row r="504" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="504" spans="1:2" ht="12.75">
       <c r="A504" t="s">
         <v>985</v>
       </c>
@@ -8723,7 +9066,7 @@
         <v>986</v>
       </c>
     </row>
-    <row r="505" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="505" spans="1:2" ht="12.75">
       <c r="A505" t="s">
         <v>987</v>
       </c>
@@ -8731,7 +9074,7 @@
         <v>988</v>
       </c>
     </row>
-    <row r="506" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="506" spans="1:2" ht="12.75">
       <c r="A506" t="s">
         <v>989</v>
       </c>
@@ -8739,7 +9082,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="507" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="507" spans="1:2" ht="12.75">
       <c r="A507" t="s">
         <v>991</v>
       </c>
@@ -8747,7 +9090,7 @@
         <v>992</v>
       </c>
     </row>
-    <row r="508" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="508" spans="1:2" ht="12.75">
       <c r="A508" t="s">
         <v>993</v>
       </c>
@@ -8755,7 +9098,7 @@
         <v>994</v>
       </c>
     </row>
-    <row r="509" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="509" spans="1:2" ht="12.75">
       <c r="A509" t="s">
         <v>995</v>
       </c>
@@ -8763,7 +9106,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="510" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="510" spans="1:2" ht="12.75">
       <c r="A510" t="s">
         <v>997</v>
       </c>
@@ -8771,7 +9114,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="511" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="511" spans="1:2" ht="12.75">
       <c r="A511" t="s">
         <v>999</v>
       </c>
@@ -8779,7 +9122,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="512" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="512" spans="1:2" ht="12.75">
       <c r="A512" t="s">
         <v>1001</v>
       </c>
@@ -8787,7 +9130,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="513" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="513" spans="1:2" ht="12.75">
       <c r="A513" t="s">
         <v>1003</v>
       </c>
@@ -8795,7 +9138,7 @@
         <v>1004</v>
       </c>
     </row>
-    <row r="514" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="514" spans="1:2" ht="12.75">
       <c r="A514" t="s">
         <v>1005</v>
       </c>
@@ -8803,7 +9146,7 @@
         <v>1006</v>
       </c>
     </row>
-    <row r="515" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="515" spans="1:2" ht="12.75">
       <c r="A515" t="s">
         <v>1007</v>
       </c>
@@ -8811,7 +9154,7 @@
         <v>1008</v>
       </c>
     </row>
-    <row r="516" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="516" spans="1:2" ht="12.75">
       <c r="A516" t="s">
         <v>1009</v>
       </c>
@@ -8819,7 +9162,7 @@
         <v>1010</v>
       </c>
     </row>
-    <row r="517" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="517" spans="1:2" ht="12.75">
       <c r="A517" t="s">
         <v>1011</v>
       </c>
@@ -8827,7 +9170,7 @@
         <v>1012</v>
       </c>
     </row>
-    <row r="518" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="518" spans="1:2" ht="12.75">
       <c r="A518" t="s">
         <v>1013</v>
       </c>
@@ -8835,7 +9178,7 @@
         <v>1014</v>
       </c>
     </row>
-    <row r="519" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="519" spans="1:2" ht="12.75">
       <c r="A519" t="s">
         <v>1015</v>
       </c>
@@ -8843,7 +9186,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="520" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="520" spans="1:2" ht="12.75">
       <c r="A520" t="s">
         <v>1017</v>
       </c>
@@ -8851,7 +9194,7 @@
         <v>1018</v>
       </c>
     </row>
-    <row r="521" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="521" spans="1:2" ht="12.75">
       <c r="A521" t="s">
         <v>1019</v>
       </c>
@@ -8859,7 +9202,7 @@
         <v>1020</v>
       </c>
     </row>
-    <row r="522" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="522" spans="1:2" ht="12.75">
       <c r="A522" t="s">
         <v>1021</v>
       </c>
@@ -8867,7 +9210,7 @@
         <v>1022</v>
       </c>
     </row>
-    <row r="523" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="523" spans="1:2" ht="12.75">
       <c r="A523" t="s">
         <v>1023</v>
       </c>
@@ -8875,7 +9218,7 @@
         <v>1024</v>
       </c>
     </row>
-    <row r="524" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="524" spans="1:2" ht="12.75">
       <c r="A524" t="s">
         <v>1025</v>
       </c>
@@ -8883,7 +9226,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="525" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="525" spans="1:2" ht="12.75">
       <c r="A525" t="s">
         <v>1027</v>
       </c>
@@ -8891,7 +9234,7 @@
         <v>1028</v>
       </c>
     </row>
-    <row r="526" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="526" spans="1:2" ht="12.75">
       <c r="A526" t="s">
         <v>1029</v>
       </c>
@@ -8899,7 +9242,7 @@
         <v>1030</v>
       </c>
     </row>
-    <row r="527" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="527" spans="1:2" ht="12.75">
       <c r="A527" t="s">
         <v>1031</v>
       </c>
@@ -8907,7 +9250,7 @@
         <v>1032</v>
       </c>
     </row>
-    <row r="528" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="528" spans="1:2" ht="12.75">
       <c r="A528" t="s">
         <v>1033</v>
       </c>
@@ -8915,7 +9258,7 @@
         <v>1034</v>
       </c>
     </row>
-    <row r="529" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="529" spans="1:2" ht="12.75">
       <c r="A529" t="s">
         <v>1035</v>
       </c>
@@ -8923,7 +9266,7 @@
         <v>1036</v>
       </c>
     </row>
-    <row r="530" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="530" spans="1:2" ht="12.75">
       <c r="A530" t="s">
         <v>1037</v>
       </c>
@@ -8931,7 +9274,7 @@
         <v>1038</v>
       </c>
     </row>
-    <row r="531" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="531" spans="1:2" ht="12.75">
       <c r="A531" t="s">
         <v>1039</v>
       </c>
@@ -8939,7 +9282,7 @@
         <v>1040</v>
       </c>
     </row>
-    <row r="532" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="532" spans="1:2" ht="12.75">
       <c r="A532" t="s">
         <v>1041</v>
       </c>
@@ -8947,7 +9290,7 @@
         <v>1042</v>
       </c>
     </row>
-    <row r="533" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="533" spans="1:2" ht="12.75">
       <c r="A533" t="s">
         <v>1043</v>
       </c>
@@ -8955,7 +9298,7 @@
         <v>1044</v>
       </c>
     </row>
-    <row r="534" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="534" spans="1:2" ht="12.75">
       <c r="A534" t="s">
         <v>1045</v>
       </c>
@@ -8963,7 +9306,7 @@
         <v>1046</v>
       </c>
     </row>
-    <row r="535" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="535" spans="1:2" ht="12.75">
       <c r="A535" t="s">
         <v>1047</v>
       </c>
@@ -8971,7 +9314,7 @@
         <v>1048</v>
       </c>
     </row>
-    <row r="536" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="536" spans="1:2" ht="12.75">
       <c r="A536" t="s">
         <v>1049</v>
       </c>
@@ -8979,7 +9322,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="537" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="537" spans="1:2" ht="12.75">
       <c r="A537" t="s">
         <v>1051</v>
       </c>
@@ -8987,7 +9330,7 @@
         <v>1052</v>
       </c>
     </row>
-    <row r="538" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="538" spans="1:2" ht="12.75">
       <c r="A538" t="s">
         <v>1053</v>
       </c>
@@ -8995,7 +9338,7 @@
         <v>1054</v>
       </c>
     </row>
-    <row r="539" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="539" spans="1:2" ht="12.75">
       <c r="A539" t="s">
         <v>1055</v>
       </c>
@@ -9003,7 +9346,7 @@
         <v>1056</v>
       </c>
     </row>
-    <row r="540" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="540" spans="1:2" ht="12.75">
       <c r="A540" t="s">
         <v>1057</v>
       </c>
@@ -9011,7 +9354,7 @@
         <v>1058</v>
       </c>
     </row>
-    <row r="541" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="541" spans="1:2" ht="12.75">
       <c r="A541" t="s">
         <v>1059</v>
       </c>
@@ -9019,7 +9362,7 @@
         <v>1060</v>
       </c>
     </row>
-    <row r="542" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="542" spans="1:2" ht="12.75">
       <c r="A542" t="s">
         <v>1061</v>
       </c>
@@ -9027,7 +9370,7 @@
         <v>1062</v>
       </c>
     </row>
-    <row r="543" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="543" spans="1:2" ht="12.75">
       <c r="A543" t="s">
         <v>1063</v>
       </c>
@@ -9035,7 +9378,7 @@
         <v>1064</v>
       </c>
     </row>
-    <row r="544" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="544" spans="1:2" ht="12.75">
       <c r="A544" t="s">
         <v>1065</v>
       </c>
@@ -9043,7 +9386,7 @@
         <v>1066</v>
       </c>
     </row>
-    <row r="545" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="545" spans="1:2" ht="12.75">
       <c r="A545" t="s">
         <v>1067</v>
       </c>
@@ -9051,7 +9394,7 @@
         <v>1068</v>
       </c>
     </row>
-    <row r="546" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="546" spans="1:2" ht="12.75">
       <c r="A546" t="s">
         <v>1069</v>
       </c>
@@ -9059,7 +9402,7 @@
         <v>1070</v>
       </c>
     </row>
-    <row r="547" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="547" spans="1:2" ht="12.75">
       <c r="A547" t="s">
         <v>1071</v>
       </c>
@@ -9067,7 +9410,7 @@
         <v>1072</v>
       </c>
     </row>
-    <row r="548" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="548" spans="1:2" ht="12.75">
       <c r="A548" t="s">
         <v>1073</v>
       </c>
@@ -9075,7 +9418,7 @@
         <v>1074</v>
       </c>
     </row>
-    <row r="549" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="549" spans="1:2" ht="12.75">
       <c r="A549" t="s">
         <v>1075</v>
       </c>
@@ -9083,7 +9426,7 @@
         <v>1076</v>
       </c>
     </row>
-    <row r="550" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="550" spans="1:2" ht="12.75">
       <c r="A550" t="s">
         <v>1077</v>
       </c>
@@ -9091,7 +9434,7 @@
         <v>1078</v>
       </c>
     </row>
-    <row r="551" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="551" spans="1:2" ht="12.75">
       <c r="A551" t="s">
         <v>1079</v>
       </c>
@@ -9099,7 +9442,7 @@
         <v>1080</v>
       </c>
     </row>
-    <row r="552" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="552" spans="1:2" ht="12.75">
       <c r="A552" t="s">
         <v>1081</v>
       </c>
@@ -9107,7 +9450,7 @@
         <v>1082</v>
       </c>
     </row>
-    <row r="553" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="553" spans="1:2" ht="12.75">
       <c r="A553" t="s">
         <v>1083</v>
       </c>
@@ -9115,7 +9458,7 @@
         <v>1084</v>
       </c>
     </row>
-    <row r="554" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="554" spans="1:2" ht="12.75">
       <c r="A554" t="s">
         <v>1085</v>
       </c>
@@ -9123,7 +9466,7 @@
         <v>1086</v>
       </c>
     </row>
-    <row r="555" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="555" spans="1:2" ht="12.75">
       <c r="A555" t="s">
         <v>1087</v>
       </c>
@@ -9131,7 +9474,7 @@
         <v>1088</v>
       </c>
     </row>
-    <row r="556" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="556" spans="1:2" ht="12.75">
       <c r="A556" t="s">
         <v>1089</v>
       </c>
@@ -9139,7 +9482,7 @@
         <v>1090</v>
       </c>
     </row>
-    <row r="557" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="557" spans="1:2" ht="12.75">
       <c r="A557" t="s">
         <v>1091</v>
       </c>
@@ -9147,7 +9490,7 @@
         <v>1092</v>
       </c>
     </row>
-    <row r="558" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="558" spans="1:2" ht="12.75">
       <c r="A558" t="s">
         <v>1093</v>
       </c>
@@ -9155,7 +9498,7 @@
         <v>1094</v>
       </c>
     </row>
-    <row r="559" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="559" spans="1:2" ht="12.75">
       <c r="A559" t="s">
         <v>1095</v>
       </c>
@@ -9163,7 +9506,7 @@
         <v>1096</v>
       </c>
     </row>
-    <row r="560" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="560" spans="1:2" ht="12.75">
       <c r="A560" t="s">
         <v>1097</v>
       </c>
@@ -9171,7 +9514,7 @@
         <v>1098</v>
       </c>
     </row>
-    <row r="561" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="561" spans="1:2" ht="12.75">
       <c r="A561" t="s">
         <v>1099</v>
       </c>
@@ -9179,7 +9522,7 @@
         <v>1100</v>
       </c>
     </row>
-    <row r="562" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="562" spans="1:2" ht="12.75">
       <c r="A562" t="s">
         <v>1101</v>
       </c>
@@ -9187,7 +9530,7 @@
         <v>1102</v>
       </c>
     </row>
-    <row r="563" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="563" spans="1:2" ht="12.75">
       <c r="A563" t="s">
         <v>1103</v>
       </c>
@@ -9195,7 +9538,7 @@
         <v>1104</v>
       </c>
     </row>
-    <row r="564" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="564" spans="1:2" ht="12.75">
       <c r="A564" t="s">
         <v>1105</v>
       </c>
@@ -9203,7 +9546,7 @@
         <v>1106</v>
       </c>
     </row>
-    <row r="565" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="565" spans="1:2" ht="12.75">
       <c r="A565" t="s">
         <v>1107</v>
       </c>
@@ -9211,7 +9554,7 @@
         <v>1108</v>
       </c>
     </row>
-    <row r="566" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="566" spans="1:2" ht="12.75">
       <c r="A566" t="s">
         <v>1109</v>
       </c>
@@ -9219,7 +9562,7 @@
         <v>1110</v>
       </c>
     </row>
-    <row r="567" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="567" spans="1:2" ht="12.75">
       <c r="A567" t="s">
         <v>1111</v>
       </c>
@@ -9227,7 +9570,7 @@
         <v>1112</v>
       </c>
     </row>
-    <row r="568" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="568" spans="1:2" ht="12.75">
       <c r="A568" t="s">
         <v>1113</v>
       </c>
@@ -9235,7 +9578,7 @@
         <v>1114</v>
       </c>
     </row>
-    <row r="569" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="569" spans="1:2" ht="12.75">
       <c r="A569" t="s">
         <v>1115</v>
       </c>
@@ -9243,7 +9586,7 @@
         <v>1116</v>
       </c>
     </row>
-    <row r="570" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="570" spans="1:2" ht="12.75">
       <c r="A570" t="s">
         <v>1117</v>
       </c>
@@ -9251,7 +9594,7 @@
         <v>1118</v>
       </c>
     </row>
-    <row r="571" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="571" spans="1:2" ht="12.75">
       <c r="A571" t="s">
         <v>1119</v>
       </c>
@@ -9259,7 +9602,7 @@
         <v>1120</v>
       </c>
     </row>
-    <row r="572" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="572" spans="1:2" ht="12.75">
       <c r="A572" t="s">
         <v>1121</v>
       </c>
@@ -9267,7 +9610,7 @@
         <v>1122</v>
       </c>
     </row>
-    <row r="573" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="573" spans="1:2" ht="12.75">
       <c r="A573" t="s">
         <v>1123</v>
       </c>
@@ -9275,7 +9618,7 @@
         <v>1124</v>
       </c>
     </row>
-    <row r="574" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="574" spans="1:2" ht="12.75">
       <c r="A574" t="s">
         <v>1125</v>
       </c>
@@ -9283,7 +9626,7 @@
         <v>1126</v>
       </c>
     </row>
-    <row r="575" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="575" spans="1:2" ht="12.75">
       <c r="A575" t="s">
         <v>1127</v>
       </c>
@@ -9291,7 +9634,7 @@
         <v>1128</v>
       </c>
     </row>
-    <row r="576" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="576" spans="1:2" ht="12.75">
       <c r="A576" t="s">
         <v>1129</v>
       </c>
@@ -9299,7 +9642,7 @@
         <v>1130</v>
       </c>
     </row>
-    <row r="577" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="577" spans="1:2" ht="12.75">
       <c r="A577" t="s">
         <v>1131</v>
       </c>
@@ -9307,7 +9650,7 @@
         <v>1132</v>
       </c>
     </row>
-    <row r="578" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="578" spans="1:2" ht="12.75">
       <c r="A578" t="s">
         <v>1133</v>
       </c>
@@ -9315,7 +9658,7 @@
         <v>1134</v>
       </c>
     </row>
-    <row r="579" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="579" spans="1:2" ht="12.75">
       <c r="A579" t="s">
         <v>1135</v>
       </c>
@@ -9323,7 +9666,7 @@
         <v>1136</v>
       </c>
     </row>
-    <row r="580" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="580" spans="1:2" ht="12.75">
       <c r="A580" t="s">
         <v>1137</v>
       </c>
@@ -9331,7 +9674,7 @@
         <v>1138</v>
       </c>
     </row>
-    <row r="581" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="581" spans="1:2" ht="12.75">
       <c r="A581" t="s">
         <v>1139</v>
       </c>
@@ -9339,7 +9682,7 @@
         <v>1140</v>
       </c>
     </row>
-    <row r="582" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="582" spans="1:2" ht="12.75">
       <c r="A582" t="s">
         <v>1141</v>
       </c>
@@ -9347,7 +9690,7 @@
         <v>1142</v>
       </c>
     </row>
-    <row r="583" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="583" spans="1:2" ht="12.75">
       <c r="A583" t="s">
         <v>1143</v>
       </c>
@@ -9355,7 +9698,7 @@
         <v>1144</v>
       </c>
     </row>
-    <row r="584" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="584" spans="1:2" ht="12.75">
       <c r="A584" t="s">
         <v>1145</v>
       </c>
@@ -9363,7 +9706,7 @@
         <v>1146</v>
       </c>
     </row>
-    <row r="585" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="585" spans="1:2" ht="12.75">
       <c r="A585" t="s">
         <v>1147</v>
       </c>
@@ -9371,7 +9714,7 @@
         <v>1148</v>
       </c>
     </row>
-    <row r="586" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="586" spans="1:2" ht="12.75">
       <c r="A586" t="s">
         <v>1149</v>
       </c>
@@ -9379,7 +9722,7 @@
         <v>1150</v>
       </c>
     </row>
-    <row r="587" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="587" spans="1:2" ht="12.75">
       <c r="A587" t="s">
         <v>1151</v>
       </c>
@@ -9387,7 +9730,7 @@
         <v>1152</v>
       </c>
     </row>
-    <row r="588" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="588" spans="1:2" ht="12.75">
       <c r="A588" t="s">
         <v>1153</v>
       </c>
@@ -9395,7 +9738,7 @@
         <v>1154</v>
       </c>
     </row>
-    <row r="589" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="589" spans="1:2" ht="12.75">
       <c r="A589" t="s">
         <v>1155</v>
       </c>
@@ -9403,7 +9746,7 @@
         <v>1156</v>
       </c>
     </row>
-    <row r="590" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="590" spans="1:2" ht="12.75">
       <c r="A590" t="s">
         <v>1157</v>
       </c>
@@ -9411,7 +9754,7 @@
         <v>1158</v>
       </c>
     </row>
-    <row r="591" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="591" spans="1:2" ht="12.75">
       <c r="A591" t="s">
         <v>1159</v>
       </c>
@@ -9419,7 +9762,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="592" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="592" spans="1:2" ht="12.75">
       <c r="A592" t="s">
         <v>1161</v>
       </c>
@@ -9427,7 +9770,7 @@
         <v>1162</v>
       </c>
     </row>
-    <row r="593" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="593" spans="1:2" ht="12.75">
       <c r="A593" t="s">
         <v>1163</v>
       </c>
@@ -9435,7 +9778,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="594" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="594" spans="1:2" ht="12.75">
       <c r="A594" t="s">
         <v>1165</v>
       </c>
@@ -9443,7 +9786,7 @@
         <v>1166</v>
       </c>
     </row>
-    <row r="595" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="595" spans="1:2" ht="12.75">
       <c r="A595" t="s">
         <v>1167</v>
       </c>
@@ -9451,7 +9794,7 @@
         <v>1168</v>
       </c>
     </row>
-    <row r="596" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="596" spans="1:2" ht="12.75">
       <c r="A596" t="s">
         <v>1169</v>
       </c>
@@ -9459,7 +9802,7 @@
         <v>1170</v>
       </c>
     </row>
-    <row r="597" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="597" spans="1:2" ht="12.75">
       <c r="A597" t="s">
         <v>1171</v>
       </c>
@@ -9467,7 +9810,7 @@
         <v>1172</v>
       </c>
     </row>
-    <row r="598" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="598" spans="1:2" ht="12.75">
       <c r="A598" t="s">
         <v>1173</v>
       </c>
@@ -9475,7 +9818,7 @@
         <v>1174</v>
       </c>
     </row>
-    <row r="599" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="599" spans="1:2" ht="12.75">
       <c r="A599" t="s">
         <v>1175</v>
       </c>
@@ -9483,7 +9826,7 @@
         <v>1176</v>
       </c>
     </row>
-    <row r="600" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="600" spans="1:2" ht="12.75">
       <c r="A600" t="s">
         <v>1177</v>
       </c>
@@ -9491,7 +9834,7 @@
         <v>1178</v>
       </c>
     </row>
-    <row r="601" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="601" spans="1:2" ht="12.75">
       <c r="A601" t="s">
         <v>1179</v>
       </c>
@@ -9499,7 +9842,7 @@
         <v>1180</v>
       </c>
     </row>
-    <row r="602" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="602" spans="1:2" ht="12.75">
       <c r="A602" t="s">
         <v>1181</v>
       </c>
@@ -9507,7 +9850,7 @@
         <v>1182</v>
       </c>
     </row>
-    <row r="603" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="603" spans="1:2" ht="12.75">
       <c r="A603" t="s">
         <v>1183</v>
       </c>
@@ -9515,7 +9858,7 @@
         <v>1184</v>
       </c>
     </row>
-    <row r="604" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="604" spans="1:2" ht="12.75">
       <c r="A604" t="s">
         <v>1185</v>
       </c>
@@ -9523,7 +9866,7 @@
         <v>1186</v>
       </c>
     </row>
-    <row r="605" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="605" spans="1:2" ht="12.75">
       <c r="A605" t="s">
         <v>1187</v>
       </c>
@@ -9531,7 +9874,7 @@
         <v>1188</v>
       </c>
     </row>
-    <row r="606" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="606" spans="1:2" ht="12.75">
       <c r="A606" t="s">
         <v>1189</v>
       </c>
@@ -9539,7 +9882,7 @@
         <v>1190</v>
       </c>
     </row>
-    <row r="607" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="607" spans="1:2" ht="12.75">
       <c r="A607" t="s">
         <v>1191</v>
       </c>
@@ -9547,7 +9890,7 @@
         <v>1192</v>
       </c>
     </row>
-    <row r="608" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="608" spans="1:2" ht="12.75">
       <c r="A608" t="s">
         <v>1193</v>
       </c>
@@ -9555,7 +9898,7 @@
         <v>1194</v>
       </c>
     </row>
-    <row r="609" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="609" spans="1:2" ht="12.75">
       <c r="A609" t="s">
         <v>1195</v>
       </c>
@@ -9563,7 +9906,7 @@
         <v>1196</v>
       </c>
     </row>
-    <row r="610" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="610" spans="1:2" ht="12.75">
       <c r="A610" t="s">
         <v>1197</v>
       </c>
@@ -9571,7 +9914,7 @@
         <v>1198</v>
       </c>
     </row>
-    <row r="611" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="611" spans="1:2" ht="12.75">
       <c r="A611" t="s">
         <v>1199</v>
       </c>
@@ -9579,7 +9922,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="612" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="612" spans="1:2" ht="12.75">
       <c r="A612" t="s">
         <v>1201</v>
       </c>
@@ -9587,7 +9930,7 @@
         <v>1202</v>
       </c>
     </row>
-    <row r="613" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="613" spans="1:2" ht="12.75">
       <c r="A613" t="s">
         <v>1203</v>
       </c>
@@ -9595,7 +9938,7 @@
         <v>1204</v>
       </c>
     </row>
-    <row r="614" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="614" spans="1:2" ht="12.75">
       <c r="A614" t="s">
         <v>1205</v>
       </c>
@@ -9603,7 +9946,7 @@
         <v>1206</v>
       </c>
     </row>
-    <row r="615" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="615" spans="1:2" ht="12.75">
       <c r="A615" t="s">
         <v>1207</v>
       </c>
@@ -9611,7 +9954,7 @@
         <v>1208</v>
       </c>
     </row>
-    <row r="616" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="616" spans="1:2" ht="12.75">
       <c r="A616" t="s">
         <v>1209</v>
       </c>
@@ -9619,7 +9962,7 @@
         <v>1210</v>
       </c>
     </row>
-    <row r="617" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="617" spans="1:2" ht="12.75">
       <c r="A617" t="s">
         <v>1211</v>
       </c>
@@ -9627,7 +9970,7 @@
         <v>1212</v>
       </c>
     </row>
-    <row r="618" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="618" spans="1:2" ht="12.75">
       <c r="A618" t="s">
         <v>1213</v>
       </c>
@@ -9635,7 +9978,7 @@
         <v>1214</v>
       </c>
     </row>
-    <row r="619" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="619" spans="1:2" ht="12.75">
       <c r="A619" t="s">
         <v>1215</v>
       </c>
@@ -9643,7 +9986,7 @@
         <v>1216</v>
       </c>
     </row>
-    <row r="620" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="620" spans="1:2" ht="12.75">
       <c r="A620" t="s">
         <v>1217</v>
       </c>
@@ -9651,7 +9994,7 @@
         <v>1218</v>
       </c>
     </row>
-    <row r="621" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="621" spans="1:2" ht="12.75">
       <c r="A621" t="s">
         <v>1219</v>
       </c>
@@ -9659,7 +10002,7 @@
         <v>1220</v>
       </c>
     </row>
-    <row r="622" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="622" spans="1:2" ht="12.75">
       <c r="A622" t="s">
         <v>1221</v>
       </c>
@@ -9667,7 +10010,7 @@
         <v>1222</v>
       </c>
     </row>
-    <row r="623" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="623" spans="1:2" ht="12.75">
       <c r="A623" t="s">
         <v>1223</v>
       </c>
@@ -9675,7 +10018,7 @@
         <v>1224</v>
       </c>
     </row>
-    <row r="624" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="624" spans="1:2" ht="12.75">
       <c r="A624" t="s">
         <v>1225</v>
       </c>
@@ -9683,7 +10026,7 @@
         <v>1226</v>
       </c>
     </row>
-    <row r="625" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="625" spans="1:2" ht="12.75">
       <c r="A625" t="s">
         <v>1227</v>
       </c>
@@ -9691,7 +10034,7 @@
         <v>1228</v>
       </c>
     </row>
-    <row r="626" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="626" spans="1:2" ht="12.75">
       <c r="A626" t="s">
         <v>1229</v>
       </c>
@@ -9699,7 +10042,7 @@
         <v>1230</v>
       </c>
     </row>
-    <row r="627" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="627" spans="1:2" ht="12.75">
       <c r="A627" t="s">
         <v>1231</v>
       </c>
@@ -9707,7 +10050,7 @@
         <v>1232</v>
       </c>
     </row>
-    <row r="628" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="628" spans="1:2" ht="12.75">
       <c r="A628" t="s">
         <v>1233</v>
       </c>
@@ -9715,7 +10058,7 @@
         <v>1234</v>
       </c>
     </row>
-    <row r="629" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="629" spans="1:2" ht="12.75">
       <c r="A629" t="s">
         <v>1235</v>
       </c>
@@ -9723,7 +10066,7 @@
         <v>1236</v>
       </c>
     </row>
-    <row r="630" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="630" spans="1:2" ht="12.75">
       <c r="A630" t="s">
         <v>1237</v>
       </c>
@@ -9731,7 +10074,7 @@
         <v>1238</v>
       </c>
     </row>
-    <row r="631" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="631" spans="1:2" ht="12.75">
       <c r="A631" t="s">
         <v>1239</v>
       </c>
@@ -9739,7 +10082,7 @@
         <v>1240</v>
       </c>
     </row>
-    <row r="632" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="632" spans="1:2" ht="12.75">
       <c r="A632" t="s">
         <v>1241</v>
       </c>
@@ -9747,7 +10090,7 @@
         <v>1242</v>
       </c>
     </row>
-    <row r="633" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="633" spans="1:2" ht="12.75">
       <c r="A633" t="s">
         <v>1243</v>
       </c>
@@ -9755,7 +10098,7 @@
         <v>1244</v>
       </c>
     </row>
-    <row r="634" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="634" spans="1:2" ht="12.75">
       <c r="A634" t="s">
         <v>1245</v>
       </c>
@@ -9763,7 +10106,7 @@
         <v>1246</v>
       </c>
     </row>
-    <row r="635" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="635" spans="1:2" ht="12.75">
       <c r="A635" t="s">
         <v>1247</v>
       </c>
@@ -9771,7 +10114,7 @@
         <v>1248</v>
       </c>
     </row>
-    <row r="636" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="636" spans="1:2" ht="12.75">
       <c r="A636" t="s">
         <v>1249</v>
       </c>
@@ -9779,7 +10122,7 @@
         <v>1250</v>
       </c>
     </row>
-    <row r="637" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="637" spans="1:2" ht="12.75">
       <c r="A637" t="s">
         <v>1251</v>
       </c>
@@ -9787,7 +10130,7 @@
         <v>1252</v>
       </c>
     </row>
-    <row r="638" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="638" spans="1:2" ht="12.75">
       <c r="A638" t="s">
         <v>1253</v>
       </c>
@@ -9795,7 +10138,7 @@
         <v>1254</v>
       </c>
     </row>
-    <row r="639" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="639" spans="1:2" ht="12.75">
       <c r="A639" t="s">
         <v>1255</v>
       </c>
@@ -9803,7 +10146,7 @@
         <v>1256</v>
       </c>
     </row>
-    <row r="640" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="640" spans="1:2" ht="12.75">
       <c r="A640" t="s">
         <v>1257</v>
       </c>
@@ -9811,7 +10154,7 @@
         <v>1258</v>
       </c>
     </row>
-    <row r="641" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="641" spans="1:2" ht="12.75">
       <c r="A641" t="s">
         <v>1259</v>
       </c>
@@ -9819,7 +10162,7 @@
         <v>1260</v>
       </c>
     </row>
-    <row r="642" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="642" spans="1:2" ht="12.75">
       <c r="A642" t="s">
         <v>1261</v>
       </c>
@@ -9827,7 +10170,7 @@
         <v>1262</v>
       </c>
     </row>
-    <row r="643" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="643" spans="1:2" ht="12.75">
       <c r="A643" t="s">
         <v>1263</v>
       </c>
@@ -9835,7 +10178,7 @@
         <v>1264</v>
       </c>
     </row>
-    <row r="644" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="644" spans="1:2" ht="12.75">
       <c r="A644" t="s">
         <v>1265</v>
       </c>
@@ -9843,7 +10186,7 @@
         <v>1266</v>
       </c>
     </row>
-    <row r="645" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="645" spans="1:2" ht="12.75">
       <c r="A645" t="s">
         <v>1267</v>
       </c>
@@ -9851,7 +10194,7 @@
         <v>1268</v>
       </c>
     </row>
-    <row r="646" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="646" spans="1:2" ht="12.75">
       <c r="A646" t="s">
         <v>1269</v>
       </c>
@@ -9859,7 +10202,7 @@
         <v>1270</v>
       </c>
     </row>
-    <row r="647" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="647" spans="1:2" ht="12.75">
       <c r="A647" t="s">
         <v>1271</v>
       </c>
@@ -9867,7 +10210,7 @@
         <v>1272</v>
       </c>
     </row>
-    <row r="648" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="648" spans="1:2" ht="12.75">
       <c r="A648" t="s">
         <v>1273</v>
       </c>
@@ -9875,7 +10218,7 @@
         <v>1274</v>
       </c>
     </row>
-    <row r="649" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="649" spans="1:2" ht="12.75">
       <c r="A649" t="s">
         <v>1275</v>
       </c>
@@ -9883,7 +10226,7 @@
         <v>1276</v>
       </c>
     </row>
-    <row r="650" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="650" spans="1:2" ht="12.75">
       <c r="A650" t="s">
         <v>1277</v>
       </c>
@@ -9891,7 +10234,7 @@
         <v>1278</v>
       </c>
     </row>
-    <row r="651" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="651" spans="1:2" ht="12.75">
       <c r="A651" t="s">
         <v>1279</v>
       </c>
@@ -9899,7 +10242,7 @@
         <v>1280</v>
       </c>
     </row>
-    <row r="652" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="652" spans="1:2" ht="12.75">
       <c r="A652" t="s">
         <v>1281</v>
       </c>
@@ -9907,7 +10250,7 @@
         <v>1282</v>
       </c>
     </row>
-    <row r="653" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="653" spans="1:2" ht="12.75">
       <c r="A653" t="s">
         <v>1283</v>
       </c>
@@ -9915,7 +10258,7 @@
         <v>1284</v>
       </c>
     </row>
-    <row r="654" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="654" spans="1:2" ht="12.75">
       <c r="A654" t="s">
         <v>1285</v>
       </c>
@@ -9923,7 +10266,7 @@
         <v>1286</v>
       </c>
     </row>
-    <row r="655" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="655" spans="1:2" ht="12.75">
       <c r="A655" t="s">
         <v>1287</v>
       </c>
@@ -9931,7 +10274,7 @@
         <v>1288</v>
       </c>
     </row>
-    <row r="656" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="656" spans="1:2" ht="12.75">
       <c r="A656" t="s">
         <v>1289</v>
       </c>
@@ -9939,7 +10282,7 @@
         <v>1290</v>
       </c>
     </row>
-    <row r="657" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="657" spans="1:2" ht="12.75">
       <c r="A657" t="s">
         <v>1291</v>
       </c>
@@ -9947,7 +10290,7 @@
         <v>1292</v>
       </c>
     </row>
-    <row r="658" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="658" spans="1:2" ht="12.75">
       <c r="A658" t="s">
         <v>1293</v>
       </c>
@@ -9955,7 +10298,7 @@
         <v>1294</v>
       </c>
     </row>
-    <row r="659" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="659" spans="1:2" ht="12.75">
       <c r="A659" t="s">
         <v>1295</v>
       </c>
@@ -9963,7 +10306,7 @@
         <v>1296</v>
       </c>
     </row>
-    <row r="660" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="660" spans="1:2" ht="12.75">
       <c r="A660" t="s">
         <v>1297</v>
       </c>
@@ -9971,7 +10314,7 @@
         <v>1298</v>
       </c>
     </row>
-    <row r="661" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="661" spans="1:2" ht="12.75">
       <c r="A661" t="s">
         <v>1299</v>
       </c>
@@ -9979,7 +10322,7 @@
         <v>1300</v>
       </c>
     </row>
-    <row r="662" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="662" spans="1:2" ht="12.75">
       <c r="A662" t="s">
         <v>1301</v>
       </c>
@@ -9987,7 +10330,7 @@
         <v>1302</v>
       </c>
     </row>
-    <row r="663" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="663" spans="1:2" ht="12.75">
       <c r="A663" t="s">
         <v>1303</v>
       </c>
@@ -9995,7 +10338,7 @@
         <v>1304</v>
       </c>
     </row>
-    <row r="664" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="664" spans="1:2" ht="12.75">
       <c r="A664" t="s">
         <v>1305</v>
       </c>
@@ -10003,7 +10346,7 @@
         <v>1306</v>
       </c>
     </row>
-    <row r="665" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="665" spans="1:2" ht="12.75">
       <c r="A665" t="s">
         <v>1307</v>
       </c>
@@ -10011,7 +10354,7 @@
         <v>1308</v>
       </c>
     </row>
-    <row r="666" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="666" spans="1:2" ht="12.75">
       <c r="A666" t="s">
         <v>1309</v>
       </c>
@@ -10019,7 +10362,7 @@
         <v>1310</v>
       </c>
     </row>
-    <row r="667" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="667" spans="1:2" ht="12.75">
       <c r="A667" t="s">
         <v>1311</v>
       </c>
@@ -10027,7 +10370,7 @@
         <v>1312</v>
       </c>
     </row>
-    <row r="668" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="668" spans="1:2" ht="12.75">
       <c r="A668" t="s">
         <v>1313</v>
       </c>
@@ -10035,7 +10378,7 @@
         <v>1314</v>
       </c>
     </row>
-    <row r="669" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="669" spans="1:2" ht="12.75">
       <c r="A669" t="s">
         <v>1315</v>
       </c>
@@ -10043,7 +10386,7 @@
         <v>1316</v>
       </c>
     </row>
-    <row r="670" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="670" spans="1:2" ht="12.75">
       <c r="A670" t="s">
         <v>1317</v>
       </c>
@@ -10051,7 +10394,7 @@
         <v>1318</v>
       </c>
     </row>
-    <row r="671" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="671" spans="1:2" ht="12.75">
       <c r="A671" t="s">
         <v>1319</v>
       </c>
@@ -10059,7 +10402,7 @@
         <v>1320</v>
       </c>
     </row>
-    <row r="672" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="672" spans="1:2" ht="12.75">
       <c r="A672" t="s">
         <v>1321</v>
       </c>
@@ -10067,7 +10410,7 @@
         <v>1322</v>
       </c>
     </row>
-    <row r="673" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="673" spans="1:2" ht="12.75">
       <c r="A673" t="s">
         <v>1323</v>
       </c>
@@ -10075,7 +10418,7 @@
         <v>1324</v>
       </c>
     </row>
-    <row r="674" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="674" spans="1:2" ht="12.75">
       <c r="A674" t="s">
         <v>1325</v>
       </c>
@@ -10083,7 +10426,7 @@
         <v>1326</v>
       </c>
     </row>
-    <row r="675" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="675" spans="1:2" ht="12.75">
       <c r="A675" t="s">
         <v>1327</v>
       </c>
@@ -10091,7 +10434,7 @@
         <v>1328</v>
       </c>
     </row>
-    <row r="676" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="676" spans="1:2" ht="12.75">
       <c r="A676" t="s">
         <v>1329</v>
       </c>
@@ -10099,7 +10442,7 @@
         <v>1330</v>
       </c>
     </row>
-    <row r="677" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="677" spans="1:2" ht="12.75">
       <c r="A677" t="s">
         <v>1331</v>
       </c>
@@ -10107,7 +10450,7 @@
         <v>1332</v>
       </c>
     </row>
-    <row r="678" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="678" spans="1:2" ht="12.75">
       <c r="A678" t="s">
         <v>1333</v>
       </c>
@@ -10115,7 +10458,7 @@
         <v>1334</v>
       </c>
     </row>
-    <row r="679" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="679" spans="1:2" ht="12.75">
       <c r="A679" t="s">
         <v>1335</v>
       </c>
@@ -10123,7 +10466,7 @@
         <v>1336</v>
       </c>
     </row>
-    <row r="680" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="680" spans="1:2" ht="12.75">
       <c r="A680" t="s">
         <v>1337</v>
       </c>
@@ -10131,7 +10474,7 @@
         <v>1338</v>
       </c>
     </row>
-    <row r="681" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="681" spans="1:2" ht="12.75">
       <c r="A681" t="s">
         <v>1339</v>
       </c>
@@ -10139,7 +10482,7 @@
         <v>1340</v>
       </c>
     </row>
-    <row r="682" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="682" spans="1:2" ht="12.75">
       <c r="A682" t="s">
         <v>1341</v>
       </c>
@@ -10147,7 +10490,7 @@
         <v>1342</v>
       </c>
     </row>
-    <row r="683" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="683" spans="1:2" ht="12.75">
       <c r="A683" t="s">
         <v>1343</v>
       </c>
@@ -10155,7 +10498,7 @@
         <v>1344</v>
       </c>
     </row>
-    <row r="684" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="684" spans="1:2" ht="12.75">
       <c r="A684" t="s">
         <v>1345</v>
       </c>
@@ -10163,7 +10506,7 @@
         <v>1346</v>
       </c>
     </row>
-    <row r="685" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="685" spans="1:2" ht="12.75">
       <c r="A685" t="s">
         <v>1347</v>
       </c>
@@ -10171,7 +10514,7 @@
         <v>1348</v>
       </c>
     </row>
-    <row r="686" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="686" spans="1:2" ht="12.75">
       <c r="A686" t="s">
         <v>1349</v>
       </c>
@@ -10179,7 +10522,7 @@
         <v>1350</v>
       </c>
     </row>
-    <row r="687" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="687" spans="1:2" ht="12.75">
       <c r="A687" t="s">
         <v>1351</v>
       </c>
@@ -10187,7 +10530,7 @@
         <v>1352</v>
       </c>
     </row>
-    <row r="688" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="688" spans="1:2" ht="12.75">
       <c r="A688" t="s">
         <v>1353</v>
       </c>
@@ -10195,7 +10538,7 @@
         <v>1354</v>
       </c>
     </row>
-    <row r="689" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="689" spans="1:2" ht="12.75">
       <c r="A689" t="s">
         <v>1355</v>
       </c>
@@ -10203,7 +10546,7 @@
         <v>1356</v>
       </c>
     </row>
-    <row r="690" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="690" spans="1:2" ht="12.75">
       <c r="A690" t="s">
         <v>1357</v>
       </c>
@@ -10211,7 +10554,7 @@
         <v>1358</v>
       </c>
     </row>
-    <row r="691" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="691" spans="1:2" ht="12.75">
       <c r="A691" t="s">
         <v>1359</v>
       </c>
@@ -10219,7 +10562,7 @@
         <v>1360</v>
       </c>
     </row>
-    <row r="692" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="692" spans="1:2" ht="12.75">
       <c r="A692" t="s">
         <v>1361</v>
       </c>
@@ -10227,7 +10570,7 @@
         <v>1362</v>
       </c>
     </row>
-    <row r="693" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="693" spans="1:2" ht="12.75">
       <c r="A693" t="s">
         <v>1363</v>
       </c>
@@ -10235,7 +10578,7 @@
         <v>1364</v>
       </c>
     </row>
-    <row r="694" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="694" spans="1:2" ht="12.75">
       <c r="A694" t="s">
         <v>1365</v>
       </c>
@@ -10243,7 +10586,7 @@
         <v>1366</v>
       </c>
     </row>
-    <row r="695" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="695" spans="1:2" ht="12.75">
       <c r="A695" t="s">
         <v>1367</v>
       </c>
@@ -10251,7 +10594,7 @@
         <v>1368</v>
       </c>
     </row>
-    <row r="696" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="696" spans="1:2" ht="12.75">
       <c r="A696" t="s">
         <v>1369</v>
       </c>
@@ -10259,7 +10602,7 @@
         <v>1370</v>
       </c>
     </row>
-    <row r="697" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="697" spans="1:2" ht="12.75">
       <c r="A697" t="s">
         <v>1371</v>
       </c>
@@ -10267,7 +10610,7 @@
         <v>1372</v>
       </c>
     </row>
-    <row r="698" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="698" spans="1:2" ht="12.75">
       <c r="A698" t="s">
         <v>1373</v>
       </c>
@@ -10275,7 +10618,7 @@
         <v>1374</v>
       </c>
     </row>
-    <row r="699" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="699" spans="1:2" ht="12.75">
       <c r="A699" t="s">
         <v>1375</v>
       </c>
@@ -10283,7 +10626,7 @@
         <v>1376</v>
       </c>
     </row>
-    <row r="700" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="700" spans="1:2" ht="12.75">
       <c r="A700" t="s">
         <v>1377</v>
       </c>
@@ -10291,7 +10634,7 @@
         <v>1378</v>
       </c>
     </row>
-    <row r="701" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="701" spans="1:2" ht="12.75">
       <c r="A701" t="s">
         <v>1379</v>
       </c>
@@ -10299,7 +10642,7 @@
         <v>1380</v>
       </c>
     </row>
-    <row r="702" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="702" spans="1:2" ht="12.75">
       <c r="A702" t="s">
         <v>1381</v>
       </c>
@@ -10307,7 +10650,7 @@
         <v>1382</v>
       </c>
     </row>
-    <row r="703" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="703" spans="1:2" ht="12.75">
       <c r="A703" t="s">
         <v>1383</v>
       </c>
@@ -10315,7 +10658,7 @@
         <v>1384</v>
       </c>
     </row>
-    <row r="704" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="704" spans="1:2" ht="12.75">
       <c r="A704" t="s">
         <v>1385</v>
       </c>
@@ -10323,7 +10666,7 @@
         <v>1386</v>
       </c>
     </row>
-    <row r="705" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="705" spans="1:2" ht="12.75">
       <c r="A705" t="s">
         <v>1387</v>
       </c>
@@ -10331,7 +10674,7 @@
         <v>1388</v>
       </c>
     </row>
-    <row r="706" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="706" spans="1:2" ht="12.75">
       <c r="A706" t="s">
         <v>1389</v>
       </c>
@@ -10339,7 +10682,7 @@
         <v>1390</v>
       </c>
     </row>
-    <row r="707" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="707" spans="1:2" ht="12.75">
       <c r="A707" t="s">
         <v>1391</v>
       </c>
@@ -10347,7 +10690,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="708" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="708" spans="1:2" ht="12.75">
       <c r="A708" t="s">
         <v>1393</v>
       </c>
@@ -10355,7 +10698,7 @@
         <v>1394</v>
       </c>
     </row>
-    <row r="709" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="709" spans="1:2" ht="12.75">
       <c r="A709" t="s">
         <v>1395</v>
       </c>
@@ -10363,7 +10706,7 @@
         <v>1396</v>
       </c>
     </row>
-    <row r="710" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="710" spans="1:2" ht="12.75">
       <c r="A710" t="s">
         <v>1397</v>
       </c>
@@ -10371,7 +10714,7 @@
         <v>1398</v>
       </c>
     </row>
-    <row r="711" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="711" spans="1:2" ht="12.75">
       <c r="A711" t="s">
         <v>1399</v>
       </c>
@@ -10379,7 +10722,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="712" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="712" spans="1:2" ht="12.75">
       <c r="A712" t="s">
         <v>1401</v>
       </c>
@@ -10387,7 +10730,7 @@
         <v>1402</v>
       </c>
     </row>
-    <row r="713" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="713" spans="1:2" ht="12.75">
       <c r="A713" t="s">
         <v>1403</v>
       </c>
@@ -10395,7 +10738,7 @@
         <v>1404</v>
       </c>
     </row>
-    <row r="714" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="714" spans="1:2" ht="12.75">
       <c r="A714" t="s">
         <v>1405</v>
       </c>
@@ -10403,7 +10746,7 @@
         <v>1406</v>
       </c>
     </row>
-    <row r="715" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="715" spans="1:2" ht="12.75">
       <c r="A715" t="s">
         <v>1407</v>
       </c>
@@ -10411,7 +10754,7 @@
         <v>1408</v>
       </c>
     </row>
-    <row r="716" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="716" spans="1:2" ht="12.75">
       <c r="A716" t="s">
         <v>1409</v>
       </c>
@@ -10419,7 +10762,7 @@
         <v>1410</v>
       </c>
     </row>
-    <row r="717" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="717" spans="1:2" ht="12.75">
       <c r="A717" t="s">
         <v>1411</v>
       </c>
@@ -10427,7 +10770,7 @@
         <v>1412</v>
       </c>
     </row>
-    <row r="718" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="718" spans="1:2" ht="12.75">
       <c r="A718" t="s">
         <v>1413</v>
       </c>
@@ -10435,7 +10778,7 @@
         <v>1414</v>
       </c>
     </row>
-    <row r="719" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="719" spans="1:2" ht="12.75">
       <c r="A719" t="s">
         <v>1415</v>
       </c>
@@ -10443,7 +10786,7 @@
         <v>1416</v>
       </c>
     </row>
-    <row r="720" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="720" spans="1:2" ht="12.75">
       <c r="A720" t="s">
         <v>1417</v>
       </c>
@@ -10451,7 +10794,7 @@
         <v>1418</v>
       </c>
     </row>
-    <row r="721" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="721" spans="1:2" ht="12.75">
       <c r="A721" t="s">
         <v>1419</v>
       </c>
@@ -10459,7 +10802,7 @@
         <v>1420</v>
       </c>
     </row>
-    <row r="722" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="722" spans="1:2" ht="12.75">
       <c r="A722" t="s">
         <v>1421</v>
       </c>
@@ -10467,7 +10810,7 @@
         <v>1422</v>
       </c>
     </row>
-    <row r="723" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="723" spans="1:2" ht="12.75">
       <c r="A723" t="s">
         <v>1423</v>
       </c>
@@ -10475,7 +10818,7 @@
         <v>1424</v>
       </c>
     </row>
-    <row r="724" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="724" spans="1:2" ht="12.75">
       <c r="A724" t="s">
         <v>1425</v>
       </c>
@@ -10483,7 +10826,7 @@
         <v>1426</v>
       </c>
     </row>
-    <row r="725" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="725" spans="1:2" ht="12.75">
       <c r="A725" t="s">
         <v>1427</v>
       </c>
@@ -10491,7 +10834,7 @@
         <v>1428</v>
       </c>
     </row>
-    <row r="726" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="726" spans="1:2" ht="12.75">
       <c r="A726" t="s">
         <v>1429</v>
       </c>
@@ -10499,7 +10842,7 @@
         <v>1430</v>
       </c>
     </row>
-    <row r="727" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="727" spans="1:2" ht="12.75">
       <c r="A727" t="s">
         <v>1431</v>
       </c>
@@ -10507,7 +10850,7 @@
         <v>1432</v>
       </c>
     </row>
-    <row r="728" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="728" spans="1:2" ht="12.75">
       <c r="A728" t="s">
         <v>1433</v>
       </c>
@@ -10515,12 +10858,692 @@
         <v>1434</v>
       </c>
     </row>
-    <row r="729" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="729" spans="1:2" ht="12.75">
       <c r="A729" t="s">
         <v>1435</v>
       </c>
       <c r="B729" t="s">
         <v>1436</v>
+      </c>
+    </row>
+    <row r="730" spans="1:2" ht="12.75">
+      <c r="A730" t="s">
+        <v>1437</v>
+      </c>
+      <c r="B730" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="731" spans="1:2" ht="12.75">
+      <c r="A731" t="s">
+        <v>1438</v>
+      </c>
+      <c r="B731" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="732" spans="1:2" ht="12.75">
+      <c r="A732" t="s">
+        <v>1439</v>
+      </c>
+      <c r="B732" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="733" spans="1:2" ht="12.75">
+      <c r="A733" t="s">
+        <v>1440</v>
+      </c>
+      <c r="B733" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="734" spans="1:2" ht="12.75">
+      <c r="A734" t="s">
+        <v>1441</v>
+      </c>
+      <c r="B734" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="735" spans="1:2" ht="12.75">
+      <c r="A735" t="s">
+        <v>1442</v>
+      </c>
+      <c r="B735" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="736" spans="1:2" ht="12.75">
+      <c r="A736" t="s">
+        <v>1443</v>
+      </c>
+      <c r="B736" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="737" spans="1:2" ht="12.75">
+      <c r="A737" t="s">
+        <v>1444</v>
+      </c>
+      <c r="B737" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="738" spans="1:2" ht="12.75">
+      <c r="A738" t="s">
+        <v>1445</v>
+      </c>
+      <c r="B738" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="739" spans="1:2" ht="12.75">
+      <c r="A739" t="s">
+        <v>1446</v>
+      </c>
+      <c r="B739" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="740" spans="1:2" ht="12.75">
+      <c r="A740" t="s">
+        <v>1447</v>
+      </c>
+      <c r="B740" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="741" spans="1:2" ht="12.75">
+      <c r="A741" t="s">
+        <v>1448</v>
+      </c>
+      <c r="B741" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="742" spans="1:2" ht="12.75">
+      <c r="A742" t="s">
+        <v>1449</v>
+      </c>
+      <c r="B742" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="743" spans="1:2" ht="12.75">
+      <c r="A743" t="s">
+        <v>1450</v>
+      </c>
+      <c r="B743" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="744" spans="1:2" ht="12.75">
+      <c r="A744" t="s">
+        <v>1451</v>
+      </c>
+      <c r="B744" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="745" spans="1:2" ht="12.75">
+      <c r="A745" t="s">
+        <v>1452</v>
+      </c>
+      <c r="B745" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="746" spans="1:2" ht="12.75">
+      <c r="A746" t="s">
+        <v>1453</v>
+      </c>
+      <c r="B746" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="747" spans="1:2" ht="12.75">
+      <c r="A747" t="s">
+        <v>1454</v>
+      </c>
+      <c r="B747" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="748" spans="1:2" ht="12.75">
+      <c r="A748" t="s">
+        <v>1455</v>
+      </c>
+      <c r="B748" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="749" spans="1:2" ht="12.75">
+      <c r="A749" t="s">
+        <v>1456</v>
+      </c>
+      <c r="B749" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="750" spans="1:2" ht="12.75">
+      <c r="A750" t="s">
+        <v>1457</v>
+      </c>
+      <c r="B750" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="751" spans="1:2" ht="12.75">
+      <c r="A751" t="s">
+        <v>1458</v>
+      </c>
+      <c r="B751" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="752" spans="1:2" ht="12.75">
+      <c r="A752" t="s">
+        <v>1459</v>
+      </c>
+      <c r="B752" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="753" spans="1:2" ht="12.75">
+      <c r="A753" t="s">
+        <v>1460</v>
+      </c>
+      <c r="B753" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="754" spans="1:2" ht="12.75">
+      <c r="A754" t="s">
+        <v>1461</v>
+      </c>
+      <c r="B754" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="755" spans="1:2" ht="12.75">
+      <c r="A755" t="s">
+        <v>1462</v>
+      </c>
+      <c r="B755" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="756" spans="1:2" ht="12.75">
+      <c r="A756" t="s">
+        <v>1463</v>
+      </c>
+      <c r="B756" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="757" spans="1:2" ht="12.75">
+      <c r="A757" t="s">
+        <v>1464</v>
+      </c>
+      <c r="B757" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="758" spans="1:2" ht="12.75">
+      <c r="A758" t="s">
+        <v>1465</v>
+      </c>
+      <c r="B758" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="759" spans="1:2" ht="12.75">
+      <c r="A759" t="s">
+        <v>1466</v>
+      </c>
+      <c r="B759" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="760" spans="1:2" ht="12.75">
+      <c r="A760" t="s">
+        <v>1467</v>
+      </c>
+      <c r="B760" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="761" spans="1:2" ht="12.75">
+      <c r="A761" t="s">
+        <v>1468</v>
+      </c>
+      <c r="B761" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="762" spans="1:2" ht="12.75">
+      <c r="A762" t="s">
+        <v>1469</v>
+      </c>
+      <c r="B762" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="763" spans="1:2" ht="12.75">
+      <c r="A763" t="s">
+        <v>1470</v>
+      </c>
+      <c r="B763" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="764" spans="1:2" ht="12.75">
+      <c r="A764" t="s">
+        <v>1471</v>
+      </c>
+      <c r="B764" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="765" spans="1:2" ht="12.75">
+      <c r="A765" t="s">
+        <v>1472</v>
+      </c>
+      <c r="B765" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="766" spans="1:2" ht="12.75">
+      <c r="A766" t="s">
+        <v>1473</v>
+      </c>
+      <c r="B766" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="767" spans="1:2" ht="12.75">
+      <c r="A767" t="s">
+        <v>1474</v>
+      </c>
+      <c r="B767" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="768" spans="1:2" ht="12.75">
+      <c r="A768" t="s">
+        <v>1475</v>
+      </c>
+      <c r="B768" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="769" spans="1:2" ht="12.75">
+      <c r="A769" t="s">
+        <v>1476</v>
+      </c>
+      <c r="B769" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="770" spans="1:2" ht="12.75">
+      <c r="A770" t="s">
+        <v>1477</v>
+      </c>
+      <c r="B770" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="771" spans="1:2" ht="12.75">
+      <c r="A771" t="s">
+        <v>1478</v>
+      </c>
+      <c r="B771" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="772" spans="1:2" ht="12.75">
+      <c r="A772" t="s">
+        <v>1479</v>
+      </c>
+      <c r="B772" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="773" spans="1:2" ht="12.75">
+      <c r="A773" t="s">
+        <v>1480</v>
+      </c>
+      <c r="B773" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="774" spans="1:2" ht="12.75">
+      <c r="A774" t="s">
+        <v>1481</v>
+      </c>
+      <c r="B774" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="775" spans="1:2" ht="12.75">
+      <c r="A775" t="s">
+        <v>1482</v>
+      </c>
+      <c r="B775" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="776" spans="1:2" ht="12.75">
+      <c r="A776" t="s">
+        <v>1483</v>
+      </c>
+      <c r="B776" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="777" spans="1:2" ht="12.75">
+      <c r="A777" t="s">
+        <v>1484</v>
+      </c>
+      <c r="B777" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="778" spans="1:2" ht="12.75">
+      <c r="A778" t="s">
+        <v>1485</v>
+      </c>
+      <c r="B778" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="779" spans="1:2" ht="12.75">
+      <c r="A779" t="s">
+        <v>1486</v>
+      </c>
+      <c r="B779" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="780" spans="1:2" ht="12.75">
+      <c r="A780" t="s">
+        <v>1487</v>
+      </c>
+      <c r="B780" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="781" spans="1:2" ht="12.75">
+      <c r="A781" t="s">
+        <v>1488</v>
+      </c>
+      <c r="B781" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="782" spans="1:2" ht="12.75">
+      <c r="A782" t="s">
+        <v>1489</v>
+      </c>
+      <c r="B782" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="783" spans="1:2" ht="12.75">
+      <c r="A783" t="s">
+        <v>1490</v>
+      </c>
+      <c r="B783" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="784" spans="1:2" ht="12.75">
+      <c r="A784" t="s">
+        <v>1491</v>
+      </c>
+      <c r="B784" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="785" spans="1:2" ht="12.75">
+      <c r="A785" t="s">
+        <v>1492</v>
+      </c>
+      <c r="B785" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="786" spans="1:2" ht="12.75">
+      <c r="A786" t="s">
+        <v>1493</v>
+      </c>
+      <c r="B786" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="787" spans="1:2" ht="12.75">
+      <c r="A787" t="s">
+        <v>1494</v>
+      </c>
+      <c r="B787" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="788" spans="1:2" ht="12.75">
+      <c r="A788" t="s">
+        <v>1495</v>
+      </c>
+      <c r="B788" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="789" spans="1:2" ht="12.75">
+      <c r="A789" t="s">
+        <v>1496</v>
+      </c>
+      <c r="B789" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="790" spans="1:2" ht="12.75">
+      <c r="A790" t="s">
+        <v>1497</v>
+      </c>
+      <c r="B790" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="791" spans="1:2" ht="12.75">
+      <c r="A791" t="s">
+        <v>1498</v>
+      </c>
+      <c r="B791" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="792" spans="1:2" ht="12.75">
+      <c r="A792" t="s">
+        <v>1499</v>
+      </c>
+      <c r="B792" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="793" spans="1:2" ht="12.75">
+      <c r="A793" t="s">
+        <v>1500</v>
+      </c>
+      <c r="B793" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="794" spans="1:2" ht="12.75">
+      <c r="A794" t="s">
+        <v>1501</v>
+      </c>
+      <c r="B794" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="795" spans="1:2" ht="12.75">
+      <c r="A795" t="s">
+        <v>1502</v>
+      </c>
+      <c r="B795" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="796" spans="1:2" ht="12.75">
+      <c r="A796" t="s">
+        <v>1503</v>
+      </c>
+      <c r="B796" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="797" spans="1:2" ht="12.75">
+      <c r="A797" t="s">
+        <v>1504</v>
+      </c>
+      <c r="B797" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="798" spans="1:2" ht="12.75">
+      <c r="A798" t="s">
+        <v>1505</v>
+      </c>
+      <c r="B798" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="799" spans="1:2" ht="12.75">
+      <c r="A799" t="s">
+        <v>1506</v>
+      </c>
+      <c r="B799" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="800" spans="1:2" ht="12.75">
+      <c r="A800" t="s">
+        <v>1507</v>
+      </c>
+      <c r="B800" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="801" spans="1:2" ht="12.75">
+      <c r="A801" t="s">
+        <v>1508</v>
+      </c>
+      <c r="B801" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="802" spans="1:2" ht="12.75">
+      <c r="A802" t="s">
+        <v>1509</v>
+      </c>
+      <c r="B802" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="803" spans="1:2" ht="12.75">
+      <c r="A803" t="s">
+        <v>1510</v>
+      </c>
+      <c r="B803" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="804" spans="1:2" ht="12.75">
+      <c r="A804" t="s">
+        <v>1511</v>
+      </c>
+      <c r="B804" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="805" spans="1:2" ht="12.75">
+      <c r="A805" t="s">
+        <v>1512</v>
+      </c>
+      <c r="B805" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="806" spans="1:2" ht="12.75">
+      <c r="A806" t="s">
+        <v>1513</v>
+      </c>
+      <c r="B806" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="807" spans="1:2" ht="12.75">
+      <c r="A807" t="s">
+        <v>1514</v>
+      </c>
+      <c r="B807" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="808" spans="1:2" ht="12.75">
+      <c r="A808" t="s">
+        <v>1515</v>
+      </c>
+      <c r="B808" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="809" spans="1:2" ht="12.75">
+      <c r="A809" t="s">
+        <v>1516</v>
+      </c>
+      <c r="B809" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="810" spans="1:2" ht="12.75">
+      <c r="A810" t="s">
+        <v>1517</v>
+      </c>
+      <c r="B810" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="811" spans="1:2" ht="12.75">
+      <c r="A811" t="s">
+        <v>1518</v>
+      </c>
+      <c r="B811" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="812" spans="1:2" ht="12.75">
+      <c r="A812" t="s">
+        <v>1519</v>
+      </c>
+      <c r="B812" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="813" spans="1:2" ht="12.75">
+      <c r="A813" t="s">
+        <v>1520</v>
+      </c>
+      <c r="B813" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="814" spans="1:2" ht="12.75">
+      <c r="A814" t="s">
+        <v>1521</v>
+      </c>
+      <c r="B814" t="s">
+        <v>196</v>
       </c>
     </row>
   </sheetData>
